--- a/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>78771100</v>
+        <v>76734300</v>
       </c>
       <c r="E8" s="3">
-        <v>77664800</v>
+        <v>80504200</v>
       </c>
       <c r="F8" s="3">
-        <v>69113500</v>
+        <v>79373600</v>
       </c>
       <c r="G8" s="3">
-        <v>73680900</v>
+        <v>70634200</v>
       </c>
       <c r="H8" s="3">
-        <v>74682300</v>
+        <v>75302100</v>
       </c>
       <c r="I8" s="3">
-        <v>70604400</v>
+        <v>76325500</v>
       </c>
       <c r="J8" s="3">
+        <v>72157900</v>
+      </c>
+      <c r="K8" s="3">
         <v>61771100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58698600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52558300</v>
+        <v>55043700</v>
       </c>
       <c r="E9" s="3">
-        <v>52466600</v>
+        <v>53714700</v>
       </c>
       <c r="F9" s="3">
-        <v>47410700</v>
+        <v>53621000</v>
       </c>
       <c r="G9" s="3">
-        <v>50962800</v>
+        <v>48453800</v>
       </c>
       <c r="H9" s="3">
-        <v>51756800</v>
+        <v>52084100</v>
       </c>
       <c r="I9" s="3">
-        <v>49905700</v>
+        <v>52895500</v>
       </c>
       <c r="J9" s="3">
+        <v>51003800</v>
+      </c>
+      <c r="K9" s="3">
         <v>44232300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46307400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26212800</v>
+        <v>21690600</v>
       </c>
       <c r="E10" s="3">
-        <v>25198200</v>
+        <v>26789500</v>
       </c>
       <c r="F10" s="3">
-        <v>21702800</v>
+        <v>25752600</v>
       </c>
       <c r="G10" s="3">
-        <v>22718100</v>
+        <v>22180400</v>
       </c>
       <c r="H10" s="3">
-        <v>22925600</v>
+        <v>23218000</v>
       </c>
       <c r="I10" s="3">
-        <v>20698700</v>
+        <v>23430000</v>
       </c>
       <c r="J10" s="3">
+        <v>21154100</v>
+      </c>
+      <c r="K10" s="3">
         <v>17538900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12391300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>4374100</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>4167900</v>
+        <v>4470400</v>
       </c>
       <c r="F12" s="3">
-        <v>4067400</v>
+        <v>4259600</v>
       </c>
       <c r="G12" s="3">
-        <v>4255800</v>
+        <v>4156900</v>
       </c>
       <c r="H12" s="3">
-        <v>4220700</v>
+        <v>4349400</v>
       </c>
       <c r="I12" s="3">
-        <v>4236200</v>
+        <v>4313500</v>
       </c>
       <c r="J12" s="3">
+        <v>4329400</v>
+      </c>
+      <c r="K12" s="3">
         <v>4305100</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>426600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>350900</v>
+        <v>436000</v>
       </c>
       <c r="F14" s="3">
-        <v>1018700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>358600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1041100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -901,9 +920,12 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70642500</v>
+        <v>68880000</v>
       </c>
       <c r="E17" s="3">
-        <v>70984900</v>
+        <v>72196800</v>
       </c>
       <c r="F17" s="3">
-        <v>66489200</v>
+        <v>72546700</v>
       </c>
       <c r="G17" s="3">
-        <v>71006700</v>
+        <v>67952200</v>
       </c>
       <c r="H17" s="3">
-        <v>74059200</v>
+        <v>72569000</v>
       </c>
       <c r="I17" s="3">
-        <v>70363600</v>
+        <v>75688700</v>
       </c>
       <c r="J17" s="3">
+        <v>71911800</v>
+      </c>
+      <c r="K17" s="3">
         <v>59712200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59306800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8128600</v>
+        <v>7854300</v>
       </c>
       <c r="E18" s="3">
-        <v>6679900</v>
+        <v>8307400</v>
       </c>
       <c r="F18" s="3">
-        <v>2624300</v>
+        <v>6826800</v>
       </c>
       <c r="G18" s="3">
-        <v>2674300</v>
+        <v>2682000</v>
       </c>
       <c r="H18" s="3">
-        <v>623100</v>
+        <v>2733100</v>
       </c>
       <c r="I18" s="3">
-        <v>240800</v>
+        <v>636800</v>
       </c>
       <c r="J18" s="3">
+        <v>246100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2058900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-608200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1180600</v>
+        <v>-324400</v>
       </c>
       <c r="E20" s="3">
-        <v>-202200</v>
+        <v>1206600</v>
       </c>
       <c r="F20" s="3">
-        <v>-204900</v>
+        <v>-206700</v>
       </c>
       <c r="G20" s="3">
-        <v>323500</v>
+        <v>-209400</v>
       </c>
       <c r="H20" s="3">
-        <v>-47400</v>
+        <v>330700</v>
       </c>
       <c r="I20" s="3">
-        <v>206400</v>
+        <v>-48500</v>
       </c>
       <c r="J20" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K20" s="3">
         <v>383900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>68000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12716600</v>
+        <v>11396400</v>
       </c>
       <c r="E21" s="3">
-        <v>9770400</v>
+        <v>12985000</v>
       </c>
       <c r="F21" s="3">
-        <v>5398800</v>
+        <v>9974400</v>
       </c>
       <c r="G21" s="3">
-        <v>6615300</v>
+        <v>5507700</v>
       </c>
       <c r="H21" s="3">
-        <v>3806300</v>
+        <v>6748800</v>
       </c>
       <c r="I21" s="3">
-        <v>3878900</v>
+        <v>3879200</v>
       </c>
       <c r="J21" s="3">
+        <v>3952800</v>
+      </c>
+      <c r="K21" s="3">
         <v>5874900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2352100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>113300</v>
+        <v>103000</v>
       </c>
       <c r="E22" s="3">
-        <v>123300</v>
+        <v>115800</v>
       </c>
       <c r="F22" s="3">
-        <v>132200</v>
+        <v>126000</v>
       </c>
       <c r="G22" s="3">
-        <v>229800</v>
+        <v>135100</v>
       </c>
       <c r="H22" s="3">
-        <v>214500</v>
+        <v>234900</v>
       </c>
       <c r="I22" s="3">
-        <v>213300</v>
+        <v>219200</v>
       </c>
       <c r="J22" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K22" s="3">
         <v>242300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>211800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9195900</v>
+        <v>7426900</v>
       </c>
       <c r="E23" s="3">
-        <v>6354400</v>
+        <v>9398200</v>
       </c>
       <c r="F23" s="3">
-        <v>2287200</v>
+        <v>6494200</v>
       </c>
       <c r="G23" s="3">
-        <v>2767900</v>
+        <v>2337500</v>
       </c>
       <c r="H23" s="3">
-        <v>361100</v>
+        <v>2828800</v>
       </c>
       <c r="I23" s="3">
-        <v>234000</v>
+        <v>369100</v>
       </c>
       <c r="J23" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2200500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-752000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>409900</v>
+        <v>1646100</v>
       </c>
       <c r="E24" s="3">
-        <v>1379600</v>
+        <v>419000</v>
       </c>
       <c r="F24" s="3">
-        <v>1127700</v>
+        <v>1409900</v>
       </c>
       <c r="G24" s="3">
-        <v>861600</v>
+        <v>1152500</v>
       </c>
       <c r="H24" s="3">
-        <v>806600</v>
+        <v>880600</v>
       </c>
       <c r="I24" s="3">
-        <v>859800</v>
+        <v>824300</v>
       </c>
       <c r="J24" s="3">
+        <v>878700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1276200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2849800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8785900</v>
+        <v>5780800</v>
       </c>
       <c r="E26" s="3">
-        <v>4974800</v>
+        <v>8979200</v>
       </c>
       <c r="F26" s="3">
-        <v>1159500</v>
+        <v>5084200</v>
       </c>
       <c r="G26" s="3">
-        <v>1906300</v>
+        <v>1185000</v>
       </c>
       <c r="H26" s="3">
-        <v>-445400</v>
+        <v>1948300</v>
       </c>
       <c r="I26" s="3">
-        <v>-625800</v>
+        <v>-455200</v>
       </c>
       <c r="J26" s="3">
+        <v>-639500</v>
+      </c>
+      <c r="K26" s="3">
         <v>924300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3601800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8328900</v>
+        <v>5408600</v>
       </c>
       <c r="E27" s="3">
-        <v>4461300</v>
+        <v>8512200</v>
       </c>
       <c r="F27" s="3">
-        <v>666200</v>
+        <v>4559500</v>
       </c>
       <c r="G27" s="3">
-        <v>1343400</v>
+        <v>680900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1145200</v>
+        <v>1373000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1166900</v>
+        <v>-1170400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1192500</v>
+      </c>
+      <c r="K27" s="3">
         <v>377600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4128200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1180600</v>
+        <v>324400</v>
       </c>
       <c r="E32" s="3">
-        <v>202200</v>
+        <v>-1206600</v>
       </c>
       <c r="F32" s="3">
-        <v>204900</v>
+        <v>206700</v>
       </c>
       <c r="G32" s="3">
-        <v>-323500</v>
+        <v>209400</v>
       </c>
       <c r="H32" s="3">
-        <v>47400</v>
+        <v>-330700</v>
       </c>
       <c r="I32" s="3">
-        <v>-206400</v>
+        <v>48500</v>
       </c>
       <c r="J32" s="3">
+        <v>-210900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-383900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-68000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8328900</v>
+        <v>5408600</v>
       </c>
       <c r="E33" s="3">
-        <v>4461300</v>
+        <v>8512200</v>
       </c>
       <c r="F33" s="3">
-        <v>666200</v>
+        <v>4559500</v>
       </c>
       <c r="G33" s="3">
-        <v>1343400</v>
+        <v>680900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1145200</v>
+        <v>1373000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1166900</v>
+        <v>-1170400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1192500</v>
+      </c>
+      <c r="K33" s="3">
         <v>377600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4128200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8328900</v>
+        <v>5408600</v>
       </c>
       <c r="E35" s="3">
-        <v>4461300</v>
+        <v>8512200</v>
       </c>
       <c r="F35" s="3">
-        <v>666200</v>
+        <v>4559500</v>
       </c>
       <c r="G35" s="3">
-        <v>1343400</v>
+        <v>680900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1145200</v>
+        <v>1373000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1166900</v>
+        <v>-1170400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1192500</v>
+      </c>
+      <c r="K35" s="3">
         <v>377600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4128200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13363000</v>
+        <v>14034700</v>
       </c>
       <c r="E41" s="3">
-        <v>14419700</v>
+        <v>13642300</v>
       </c>
       <c r="F41" s="3">
-        <v>8727700</v>
+        <v>14721100</v>
       </c>
       <c r="G41" s="3">
-        <v>8941000</v>
+        <v>8910100</v>
       </c>
       <c r="H41" s="3">
-        <v>8630200</v>
+        <v>9127900</v>
       </c>
       <c r="I41" s="3">
-        <v>9512400</v>
+        <v>8810600</v>
       </c>
       <c r="J41" s="3">
+        <v>9711200</v>
+      </c>
+      <c r="K41" s="3">
         <v>7511600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8087000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12040100</v>
+        <v>17147300</v>
       </c>
       <c r="E42" s="3">
-        <v>10695300</v>
+        <v>12291700</v>
       </c>
       <c r="F42" s="3">
-        <v>9557600</v>
+        <v>10918900</v>
       </c>
       <c r="G42" s="3">
-        <v>8602700</v>
+        <v>9757400</v>
       </c>
       <c r="H42" s="3">
-        <v>8514900</v>
+        <v>8782600</v>
       </c>
       <c r="I42" s="3">
-        <v>7568000</v>
+        <v>8692900</v>
       </c>
       <c r="J42" s="3">
+        <v>7726200</v>
+      </c>
+      <c r="K42" s="3">
         <v>6341200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6155500</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11720800</v>
+        <v>11052700</v>
       </c>
       <c r="E43" s="3">
-        <v>10939700</v>
+        <v>11965800</v>
       </c>
       <c r="F43" s="3">
-        <v>10703000</v>
+        <v>11168300</v>
       </c>
       <c r="G43" s="3">
-        <v>9632200</v>
+        <v>10926700</v>
       </c>
       <c r="H43" s="3">
-        <v>10288500</v>
+        <v>9833600</v>
       </c>
       <c r="I43" s="3">
-        <v>9959600</v>
+        <v>10503600</v>
       </c>
       <c r="J43" s="3">
+        <v>10167800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8404900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8786500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5938300</v>
+        <v>5474900</v>
       </c>
       <c r="E44" s="3">
-        <v>6298800</v>
+        <v>6062400</v>
       </c>
       <c r="F44" s="3">
-        <v>5825200</v>
+        <v>6430500</v>
       </c>
       <c r="G44" s="3">
-        <v>6209800</v>
+        <v>5946900</v>
       </c>
       <c r="H44" s="3">
-        <v>6048800</v>
+        <v>6339600</v>
       </c>
       <c r="I44" s="3">
-        <v>6671500</v>
+        <v>6175200</v>
       </c>
       <c r="J44" s="3">
+        <v>6811000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6454400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6391800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4629500</v>
+        <v>5512500</v>
       </c>
       <c r="E45" s="3">
-        <v>4697200</v>
+        <v>4726300</v>
       </c>
       <c r="F45" s="3">
-        <v>4780100</v>
+        <v>4795400</v>
       </c>
       <c r="G45" s="3">
-        <v>4762500</v>
+        <v>4880000</v>
       </c>
       <c r="H45" s="3">
-        <v>4676600</v>
+        <v>4862000</v>
       </c>
       <c r="I45" s="3">
-        <v>4510800</v>
+        <v>4774300</v>
       </c>
       <c r="J45" s="3">
+        <v>4605100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4434900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4524200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47691700</v>
+        <v>53222100</v>
       </c>
       <c r="E46" s="3">
-        <v>47050700</v>
+        <v>48688600</v>
       </c>
       <c r="F46" s="3">
-        <v>39593500</v>
+        <v>48034200</v>
       </c>
       <c r="G46" s="3">
-        <v>38148200</v>
+        <v>40421100</v>
       </c>
       <c r="H46" s="3">
-        <v>38158900</v>
+        <v>38945600</v>
       </c>
       <c r="I46" s="3">
-        <v>38222400</v>
+        <v>38956500</v>
       </c>
       <c r="J46" s="3">
+        <v>39021300</v>
+      </c>
+      <c r="K46" s="3">
         <v>33147000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33944900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106577000</v>
+        <v>118173000</v>
       </c>
       <c r="E47" s="3">
-        <v>97772600</v>
+        <v>108805000</v>
       </c>
       <c r="F47" s="3">
-        <v>91916200</v>
+        <v>99816200</v>
       </c>
       <c r="G47" s="3">
-        <v>83937800</v>
+        <v>93837400</v>
       </c>
       <c r="H47" s="3">
-        <v>77550000</v>
+        <v>85692300</v>
       </c>
       <c r="I47" s="3">
-        <v>71983800</v>
+        <v>79171000</v>
       </c>
       <c r="J47" s="3">
+        <v>73488400</v>
+      </c>
+      <c r="K47" s="3">
         <v>66512700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57128100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7063400</v>
+        <v>12075600</v>
       </c>
       <c r="E48" s="3">
-        <v>6721800</v>
+        <v>7211100</v>
       </c>
       <c r="F48" s="3">
-        <v>6892000</v>
+        <v>6862300</v>
       </c>
       <c r="G48" s="3">
-        <v>7461200</v>
+        <v>7036100</v>
       </c>
       <c r="H48" s="3">
-        <v>6720100</v>
+        <v>7617200</v>
       </c>
       <c r="I48" s="3">
-        <v>6817600</v>
+        <v>6860600</v>
       </c>
       <c r="J48" s="3">
+        <v>6960100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7831500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8416200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15330400</v>
+        <v>15685000</v>
       </c>
       <c r="E49" s="3">
-        <v>9614100</v>
+        <v>15650900</v>
       </c>
       <c r="F49" s="3">
-        <v>10060100</v>
+        <v>9815100</v>
       </c>
       <c r="G49" s="3">
-        <v>11108400</v>
+        <v>10270400</v>
       </c>
       <c r="H49" s="3">
-        <v>10940900</v>
+        <v>11340600</v>
       </c>
       <c r="I49" s="3">
-        <v>12430300</v>
+        <v>11169600</v>
       </c>
       <c r="J49" s="3">
+        <v>12690100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11891900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9767300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14060000</v>
+        <v>14649500</v>
       </c>
       <c r="E52" s="3">
-        <v>12146500</v>
+        <v>14353900</v>
       </c>
       <c r="F52" s="3">
-        <v>12072600</v>
+        <v>12400400</v>
       </c>
       <c r="G52" s="3">
-        <v>10905400</v>
+        <v>12324900</v>
       </c>
       <c r="H52" s="3">
-        <v>10564200</v>
+        <v>11133400</v>
       </c>
       <c r="I52" s="3">
-        <v>9929400</v>
+        <v>10785000</v>
       </c>
       <c r="J52" s="3">
+        <v>10137000</v>
+      </c>
+      <c r="K52" s="3">
         <v>9526000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10936400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>190723000</v>
+        <v>213805000</v>
       </c>
       <c r="E54" s="3">
-        <v>173306000</v>
+        <v>194709000</v>
       </c>
       <c r="F54" s="3">
-        <v>160535000</v>
+        <v>176928000</v>
       </c>
       <c r="G54" s="3">
-        <v>151561000</v>
+        <v>163890000</v>
       </c>
       <c r="H54" s="3">
-        <v>143934000</v>
+        <v>154729000</v>
       </c>
       <c r="I54" s="3">
-        <v>139384000</v>
+        <v>146943000</v>
       </c>
       <c r="J54" s="3">
+        <v>142297000</v>
+      </c>
+      <c r="K54" s="3">
         <v>129178000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120193000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4473400</v>
+        <v>3533900</v>
       </c>
       <c r="E57" s="3">
-        <v>4259100</v>
+        <v>4566900</v>
       </c>
       <c r="F57" s="3">
-        <v>4907700</v>
+        <v>4348100</v>
       </c>
       <c r="G57" s="3">
-        <v>5008300</v>
+        <v>5010300</v>
       </c>
       <c r="H57" s="3">
-        <v>5655900</v>
+        <v>5112900</v>
       </c>
       <c r="I57" s="3">
-        <v>6479600</v>
+        <v>5774200</v>
       </c>
       <c r="J57" s="3">
+        <v>6615100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5200400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6858500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7190900</v>
+        <v>7795000</v>
       </c>
       <c r="E58" s="3">
-        <v>6559500</v>
+        <v>7341200</v>
       </c>
       <c r="F58" s="3">
-        <v>4709300</v>
+        <v>6696600</v>
       </c>
       <c r="G58" s="3">
-        <v>3062800</v>
+        <v>4807800</v>
       </c>
       <c r="H58" s="3">
-        <v>2013700</v>
+        <v>3126800</v>
       </c>
       <c r="I58" s="3">
-        <v>5851000</v>
+        <v>2055800</v>
       </c>
       <c r="J58" s="3">
+        <v>5973300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3640300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3709700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43601200</v>
+        <v>46582400</v>
       </c>
       <c r="E59" s="3">
-        <v>40272100</v>
+        <v>44512600</v>
       </c>
       <c r="F59" s="3">
-        <v>37848600</v>
+        <v>41113900</v>
       </c>
       <c r="G59" s="3">
-        <v>35840500</v>
+        <v>38639700</v>
       </c>
       <c r="H59" s="3">
-        <v>35467800</v>
+        <v>36589600</v>
       </c>
       <c r="I59" s="3">
-        <v>33569700</v>
+        <v>36209200</v>
       </c>
       <c r="J59" s="3">
+        <v>34271300</v>
+      </c>
+      <c r="K59" s="3">
         <v>31804100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30382900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55265500</v>
+        <v>57911300</v>
       </c>
       <c r="E60" s="3">
-        <v>51090700</v>
+        <v>56420700</v>
       </c>
       <c r="F60" s="3">
-        <v>47465600</v>
+        <v>52158600</v>
       </c>
       <c r="G60" s="3">
-        <v>43911500</v>
+        <v>48457700</v>
       </c>
       <c r="H60" s="3">
-        <v>43137400</v>
+        <v>44829400</v>
       </c>
       <c r="I60" s="3">
-        <v>43483100</v>
+        <v>44039100</v>
       </c>
       <c r="J60" s="3">
+        <v>44391900</v>
+      </c>
+      <c r="K60" s="3">
         <v>39224200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40951000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5166500</v>
+        <v>5892500</v>
       </c>
       <c r="E61" s="3">
-        <v>5667200</v>
+        <v>5274500</v>
       </c>
       <c r="F61" s="3">
-        <v>6194500</v>
+        <v>5785600</v>
       </c>
       <c r="G61" s="3">
-        <v>5059500</v>
+        <v>6324000</v>
       </c>
       <c r="H61" s="3">
-        <v>6472900</v>
+        <v>5165300</v>
       </c>
       <c r="I61" s="3">
-        <v>8332300</v>
+        <v>6608200</v>
       </c>
       <c r="J61" s="3">
+        <v>8506500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8530300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6890500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89881100</v>
+        <v>105482000</v>
       </c>
       <c r="E62" s="3">
-        <v>83311500</v>
+        <v>91759800</v>
       </c>
       <c r="F62" s="3">
-        <v>78263800</v>
+        <v>85052900</v>
       </c>
       <c r="G62" s="3">
-        <v>74121200</v>
+        <v>79899600</v>
       </c>
       <c r="H62" s="3">
-        <v>67656300</v>
+        <v>75670500</v>
       </c>
       <c r="I62" s="3">
-        <v>62232000</v>
+        <v>69070500</v>
       </c>
       <c r="J62" s="3">
+        <v>63532800</v>
+      </c>
+      <c r="K62" s="3">
         <v>57108100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49659800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>156668000</v>
+        <v>175522000</v>
       </c>
       <c r="E66" s="3">
-        <v>146332000</v>
+        <v>159943000</v>
       </c>
       <c r="F66" s="3">
-        <v>137835000</v>
+        <v>149391000</v>
       </c>
       <c r="G66" s="3">
-        <v>129169000</v>
+        <v>140716000</v>
       </c>
       <c r="H66" s="3">
-        <v>122872000</v>
+        <v>131869000</v>
       </c>
       <c r="I66" s="3">
-        <v>118857000</v>
+        <v>125440000</v>
       </c>
       <c r="J66" s="3">
+        <v>121341000</v>
+      </c>
+      <c r="K66" s="3">
         <v>109251000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101852000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21094100</v>
+        <v>25695000</v>
       </c>
       <c r="E72" s="3">
-        <v>13093100</v>
+        <v>21535000</v>
       </c>
       <c r="F72" s="3">
-        <v>8947900</v>
+        <v>13366800</v>
       </c>
       <c r="G72" s="3">
-        <v>8511200</v>
+        <v>9134900</v>
       </c>
       <c r="H72" s="3">
-        <v>7397100</v>
+        <v>8689200</v>
       </c>
       <c r="I72" s="3">
-        <v>8547000</v>
+        <v>7551700</v>
       </c>
       <c r="J72" s="3">
+        <v>8725600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9951500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9803500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34054600</v>
+        <v>38282800</v>
       </c>
       <c r="E76" s="3">
-        <v>26973400</v>
+        <v>34766400</v>
       </c>
       <c r="F76" s="3">
-        <v>22700000</v>
+        <v>27537200</v>
       </c>
       <c r="G76" s="3">
-        <v>22391800</v>
+        <v>23174400</v>
       </c>
       <c r="H76" s="3">
-        <v>21062200</v>
+        <v>22859800</v>
       </c>
       <c r="I76" s="3">
-        <v>20526500</v>
+        <v>21502500</v>
       </c>
       <c r="J76" s="3">
+        <v>20955500</v>
+      </c>
+      <c r="K76" s="3">
         <v>19927700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18341200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8328900</v>
+        <v>5408600</v>
       </c>
       <c r="E81" s="3">
-        <v>4461300</v>
+        <v>8512200</v>
       </c>
       <c r="F81" s="3">
-        <v>666200</v>
+        <v>4559500</v>
       </c>
       <c r="G81" s="3">
-        <v>1343400</v>
+        <v>680900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1145200</v>
+        <v>1373000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1166900</v>
+        <v>-1170400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1192500</v>
+      </c>
+      <c r="K81" s="3">
         <v>377600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4128200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3399900</v>
+        <v>3870600</v>
       </c>
       <c r="E83" s="3">
-        <v>3285500</v>
+        <v>3474700</v>
       </c>
       <c r="F83" s="3">
-        <v>2972900</v>
+        <v>3357800</v>
       </c>
       <c r="G83" s="3">
-        <v>3609600</v>
+        <v>3038300</v>
       </c>
       <c r="H83" s="3">
-        <v>3223500</v>
+        <v>3689000</v>
       </c>
       <c r="I83" s="3">
-        <v>3424200</v>
+        <v>3294500</v>
       </c>
       <c r="J83" s="3">
+        <v>3499500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3424500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2889100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11407900</v>
+        <v>12511800</v>
       </c>
       <c r="E89" s="3">
-        <v>11338500</v>
+        <v>11658900</v>
       </c>
       <c r="F89" s="3">
-        <v>7356200</v>
+        <v>11588000</v>
       </c>
       <c r="G89" s="3">
-        <v>6809200</v>
+        <v>7518000</v>
       </c>
       <c r="H89" s="3">
-        <v>6859700</v>
+        <v>6959000</v>
       </c>
       <c r="I89" s="3">
-        <v>6036800</v>
+        <v>7010600</v>
       </c>
       <c r="J89" s="3">
+        <v>6169600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4328300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4696600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2841900</v>
+        <v>-4085400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2390600</v>
+        <v>-2904500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3031600</v>
+        <v>-2443200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3412500</v>
+        <v>-3098300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1962700</v>
+        <v>-3487600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2576600</v>
+        <v>-2005900</v>
       </c>
       <c r="J91" s="3">
+        <v>-2633300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2967800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3458200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11884700</v>
+        <v>-12562700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7481700</v>
+        <v>-12146200</v>
       </c>
       <c r="F94" s="3">
-        <v>-11398600</v>
+        <v>-7646300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9366400</v>
+        <v>-11649400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5814300</v>
+        <v>-9572400</v>
       </c>
       <c r="I94" s="3">
-        <v>-6458500</v>
+        <v>-5942200</v>
       </c>
       <c r="J94" s="3">
+        <v>-6600600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6411000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7981300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-346000</v>
+        <v>-460500</v>
       </c>
       <c r="E96" s="3">
-        <v>-259000</v>
+        <v>-353600</v>
       </c>
       <c r="F96" s="3">
-        <v>-230000</v>
+        <v>-264700</v>
       </c>
       <c r="G96" s="3">
-        <v>-115900</v>
+        <v>-235000</v>
       </c>
       <c r="H96" s="3">
-        <v>-119600</v>
+        <v>-118500</v>
       </c>
       <c r="I96" s="3">
-        <v>-233100</v>
+        <v>-122300</v>
       </c>
       <c r="J96" s="3">
+        <v>-238200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-227800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-226700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1117000</v>
+        <v>610000</v>
       </c>
       <c r="E100" s="3">
-        <v>2240300</v>
+        <v>-1141600</v>
       </c>
       <c r="F100" s="3">
-        <v>4111400</v>
+        <v>2289600</v>
       </c>
       <c r="G100" s="3">
-        <v>3455300</v>
+        <v>4201900</v>
       </c>
       <c r="H100" s="3">
-        <v>-2392400</v>
+        <v>3531300</v>
       </c>
       <c r="I100" s="3">
-        <v>1889600</v>
+        <v>-2445100</v>
       </c>
       <c r="J100" s="3">
+        <v>1931200</v>
+      </c>
+      <c r="K100" s="3">
         <v>804700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2326300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>476900</v>
+        <v>-201100</v>
       </c>
       <c r="E101" s="3">
-        <v>-482200</v>
+        <v>487400</v>
       </c>
       <c r="F101" s="3">
-        <v>-282300</v>
+        <v>-492800</v>
       </c>
       <c r="G101" s="3">
-        <v>-587300</v>
+        <v>-288600</v>
       </c>
       <c r="H101" s="3">
-        <v>464800</v>
+        <v>-600200</v>
       </c>
       <c r="I101" s="3">
-        <v>532800</v>
+        <v>475100</v>
       </c>
       <c r="J101" s="3">
+        <v>544500</v>
+      </c>
+      <c r="K101" s="3">
         <v>657900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-125000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1116900</v>
+        <v>358100</v>
       </c>
       <c r="E102" s="3">
-        <v>5614900</v>
+        <v>-1141400</v>
       </c>
       <c r="F102" s="3">
-        <v>-213300</v>
+        <v>5738500</v>
       </c>
       <c r="G102" s="3">
-        <v>310900</v>
+        <v>-218000</v>
       </c>
       <c r="H102" s="3">
-        <v>-882200</v>
+        <v>317700</v>
       </c>
       <c r="I102" s="3">
-        <v>2000800</v>
+        <v>-901600</v>
       </c>
       <c r="J102" s="3">
+        <v>2044800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-620100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1083300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>76734300</v>
+        <v>77973300</v>
       </c>
       <c r="E8" s="3">
-        <v>80504200</v>
+        <v>81804100</v>
       </c>
       <c r="F8" s="3">
-        <v>79373600</v>
+        <v>80655200</v>
       </c>
       <c r="G8" s="3">
-        <v>70634200</v>
+        <v>71774700</v>
       </c>
       <c r="H8" s="3">
-        <v>75302100</v>
+        <v>76517900</v>
       </c>
       <c r="I8" s="3">
-        <v>76325500</v>
+        <v>77557900</v>
       </c>
       <c r="J8" s="3">
-        <v>72157900</v>
+        <v>73323000</v>
       </c>
       <c r="K8" s="3">
         <v>61771100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55043700</v>
+        <v>51219200</v>
       </c>
       <c r="E9" s="3">
-        <v>53714700</v>
+        <v>54582000</v>
       </c>
       <c r="F9" s="3">
-        <v>53621000</v>
+        <v>54486800</v>
       </c>
       <c r="G9" s="3">
-        <v>48453800</v>
+        <v>49236200</v>
       </c>
       <c r="H9" s="3">
-        <v>52084100</v>
+        <v>52925100</v>
       </c>
       <c r="I9" s="3">
-        <v>52895500</v>
+        <v>53749600</v>
       </c>
       <c r="J9" s="3">
-        <v>51003800</v>
+        <v>51827300</v>
       </c>
       <c r="K9" s="3">
         <v>44232300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21690600</v>
+        <v>26754100</v>
       </c>
       <c r="E10" s="3">
-        <v>26789500</v>
+        <v>27222100</v>
       </c>
       <c r="F10" s="3">
-        <v>25752600</v>
+        <v>26168400</v>
       </c>
       <c r="G10" s="3">
-        <v>22180400</v>
+        <v>22538500</v>
       </c>
       <c r="H10" s="3">
-        <v>23218000</v>
+        <v>23592900</v>
       </c>
       <c r="I10" s="3">
-        <v>23430000</v>
+        <v>23808300</v>
       </c>
       <c r="J10" s="3">
-        <v>21154100</v>
+        <v>21495700</v>
       </c>
       <c r="K10" s="3">
         <v>17538900</v>
@@ -830,26 +830,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>4713300</v>
       </c>
       <c r="E12" s="3">
-        <v>4470400</v>
+        <v>4542500</v>
       </c>
       <c r="F12" s="3">
-        <v>4259600</v>
+        <v>4328400</v>
       </c>
       <c r="G12" s="3">
-        <v>4156900</v>
+        <v>4224000</v>
       </c>
       <c r="H12" s="3">
-        <v>4349400</v>
+        <v>4419600</v>
       </c>
       <c r="I12" s="3">
-        <v>4313500</v>
+        <v>4383200</v>
       </c>
       <c r="J12" s="3">
-        <v>4329400</v>
+        <v>4399300</v>
       </c>
       <c r="K12" s="3">
         <v>4305100</v>
@@ -896,17 +896,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>281100</v>
       </c>
       <c r="E14" s="3">
-        <v>436000</v>
+        <v>443000</v>
       </c>
       <c r="F14" s="3">
-        <v>358600</v>
+        <v>364400</v>
       </c>
       <c r="G14" s="3">
-        <v>1041100</v>
+        <v>1057900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68880000</v>
+        <v>69992200</v>
       </c>
       <c r="E17" s="3">
-        <v>72196800</v>
+        <v>73362500</v>
       </c>
       <c r="F17" s="3">
-        <v>72546700</v>
+        <v>73718100</v>
       </c>
       <c r="G17" s="3">
-        <v>67952200</v>
+        <v>69049300</v>
       </c>
       <c r="H17" s="3">
-        <v>72569000</v>
+        <v>73740700</v>
       </c>
       <c r="I17" s="3">
-        <v>75688700</v>
+        <v>76910800</v>
       </c>
       <c r="J17" s="3">
-        <v>71911800</v>
+        <v>73072900</v>
       </c>
       <c r="K17" s="3">
         <v>59712200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7854300</v>
+        <v>7981100</v>
       </c>
       <c r="E18" s="3">
-        <v>8307400</v>
+        <v>8441600</v>
       </c>
       <c r="F18" s="3">
-        <v>6826800</v>
+        <v>6937100</v>
       </c>
       <c r="G18" s="3">
-        <v>2682000</v>
+        <v>2725300</v>
       </c>
       <c r="H18" s="3">
-        <v>2733100</v>
+        <v>2777200</v>
       </c>
       <c r="I18" s="3">
-        <v>636800</v>
+        <v>647100</v>
       </c>
       <c r="J18" s="3">
-        <v>246100</v>
+        <v>250100</v>
       </c>
       <c r="K18" s="3">
         <v>2058900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-324400</v>
+        <v>-329600</v>
       </c>
       <c r="E20" s="3">
-        <v>1206600</v>
+        <v>1226100</v>
       </c>
       <c r="F20" s="3">
-        <v>-206700</v>
+        <v>-210000</v>
       </c>
       <c r="G20" s="3">
-        <v>-209400</v>
+        <v>-212800</v>
       </c>
       <c r="H20" s="3">
-        <v>330700</v>
+        <v>336000</v>
       </c>
       <c r="I20" s="3">
-        <v>-48500</v>
+        <v>-49300</v>
       </c>
       <c r="J20" s="3">
-        <v>210900</v>
+        <v>214300</v>
       </c>
       <c r="K20" s="3">
         <v>383900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11396400</v>
+        <v>11567900</v>
       </c>
       <c r="E21" s="3">
-        <v>12985000</v>
+        <v>13183500</v>
       </c>
       <c r="F21" s="3">
-        <v>9974400</v>
+        <v>10124700</v>
       </c>
       <c r="G21" s="3">
-        <v>5507700</v>
+        <v>5586800</v>
       </c>
       <c r="H21" s="3">
-        <v>6748800</v>
+        <v>6845900</v>
       </c>
       <c r="I21" s="3">
-        <v>3879200</v>
+        <v>3931300</v>
       </c>
       <c r="J21" s="3">
-        <v>3952800</v>
+        <v>4005400</v>
       </c>
       <c r="K21" s="3">
         <v>5874900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>103000</v>
+        <v>104700</v>
       </c>
       <c r="E22" s="3">
-        <v>115800</v>
+        <v>117700</v>
       </c>
       <c r="F22" s="3">
-        <v>126000</v>
+        <v>128100</v>
       </c>
       <c r="G22" s="3">
-        <v>135100</v>
+        <v>137300</v>
       </c>
       <c r="H22" s="3">
-        <v>234900</v>
+        <v>238700</v>
       </c>
       <c r="I22" s="3">
-        <v>219200</v>
+        <v>222800</v>
       </c>
       <c r="J22" s="3">
-        <v>217900</v>
+        <v>221500</v>
       </c>
       <c r="K22" s="3">
         <v>242300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7426900</v>
+        <v>7546800</v>
       </c>
       <c r="E23" s="3">
-        <v>9398200</v>
+        <v>9550000</v>
       </c>
       <c r="F23" s="3">
-        <v>6494200</v>
+        <v>6599000</v>
       </c>
       <c r="G23" s="3">
-        <v>2337500</v>
+        <v>2375300</v>
       </c>
       <c r="H23" s="3">
-        <v>2828800</v>
+        <v>2874500</v>
       </c>
       <c r="I23" s="3">
-        <v>369100</v>
+        <v>375000</v>
       </c>
       <c r="J23" s="3">
-        <v>239100</v>
+        <v>243000</v>
       </c>
       <c r="K23" s="3">
         <v>2200500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1646100</v>
+        <v>1672700</v>
       </c>
       <c r="E24" s="3">
-        <v>419000</v>
+        <v>425700</v>
       </c>
       <c r="F24" s="3">
-        <v>1409900</v>
+        <v>1432700</v>
       </c>
       <c r="G24" s="3">
-        <v>1152500</v>
+        <v>1171100</v>
       </c>
       <c r="H24" s="3">
-        <v>880600</v>
+        <v>894800</v>
       </c>
       <c r="I24" s="3">
-        <v>824300</v>
+        <v>837600</v>
       </c>
       <c r="J24" s="3">
-        <v>878700</v>
+        <v>892900</v>
       </c>
       <c r="K24" s="3">
         <v>1276200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5780800</v>
+        <v>5874100</v>
       </c>
       <c r="E26" s="3">
-        <v>8979200</v>
+        <v>9124200</v>
       </c>
       <c r="F26" s="3">
-        <v>5084200</v>
+        <v>5166300</v>
       </c>
       <c r="G26" s="3">
-        <v>1185000</v>
+        <v>1204200</v>
       </c>
       <c r="H26" s="3">
-        <v>1948300</v>
+        <v>1979700</v>
       </c>
       <c r="I26" s="3">
-        <v>-455200</v>
+        <v>-462600</v>
       </c>
       <c r="J26" s="3">
-        <v>-639500</v>
+        <v>-649900</v>
       </c>
       <c r="K26" s="3">
         <v>924300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5408600</v>
+        <v>5495900</v>
       </c>
       <c r="E27" s="3">
-        <v>8512200</v>
+        <v>8649600</v>
       </c>
       <c r="F27" s="3">
-        <v>4559500</v>
+        <v>4633100</v>
       </c>
       <c r="G27" s="3">
-        <v>680900</v>
+        <v>691800</v>
       </c>
       <c r="H27" s="3">
-        <v>1373000</v>
+        <v>1395100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1170400</v>
+        <v>-1189300</v>
       </c>
       <c r="J27" s="3">
-        <v>-1192500</v>
+        <v>-1211800</v>
       </c>
       <c r="K27" s="3">
         <v>377600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>324400</v>
+        <v>329600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1206600</v>
+        <v>-1226100</v>
       </c>
       <c r="F32" s="3">
-        <v>206700</v>
+        <v>210000</v>
       </c>
       <c r="G32" s="3">
-        <v>209400</v>
+        <v>212800</v>
       </c>
       <c r="H32" s="3">
-        <v>-330700</v>
+        <v>-336000</v>
       </c>
       <c r="I32" s="3">
-        <v>48500</v>
+        <v>49300</v>
       </c>
       <c r="J32" s="3">
-        <v>-210900</v>
+        <v>-214300</v>
       </c>
       <c r="K32" s="3">
         <v>-383900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5408600</v>
+        <v>5495900</v>
       </c>
       <c r="E33" s="3">
-        <v>8512200</v>
+        <v>8649600</v>
       </c>
       <c r="F33" s="3">
-        <v>4559500</v>
+        <v>4633100</v>
       </c>
       <c r="G33" s="3">
-        <v>680900</v>
+        <v>691800</v>
       </c>
       <c r="H33" s="3">
-        <v>1373000</v>
+        <v>1395100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1170400</v>
+        <v>-1189300</v>
       </c>
       <c r="J33" s="3">
-        <v>-1192500</v>
+        <v>-1211800</v>
       </c>
       <c r="K33" s="3">
         <v>377600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5408600</v>
+        <v>5495900</v>
       </c>
       <c r="E35" s="3">
-        <v>8512200</v>
+        <v>8649600</v>
       </c>
       <c r="F35" s="3">
-        <v>4559500</v>
+        <v>4633100</v>
       </c>
       <c r="G35" s="3">
-        <v>680900</v>
+        <v>691800</v>
       </c>
       <c r="H35" s="3">
-        <v>1373000</v>
+        <v>1395100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1170400</v>
+        <v>-1189300</v>
       </c>
       <c r="J35" s="3">
-        <v>-1192500</v>
+        <v>-1211800</v>
       </c>
       <c r="K35" s="3">
         <v>377600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14034700</v>
+        <v>14276700</v>
       </c>
       <c r="E41" s="3">
-        <v>13642300</v>
+        <v>13877500</v>
       </c>
       <c r="F41" s="3">
-        <v>14721100</v>
+        <v>14974900</v>
       </c>
       <c r="G41" s="3">
-        <v>8910100</v>
+        <v>9063700</v>
       </c>
       <c r="H41" s="3">
-        <v>9127900</v>
+        <v>9285300</v>
       </c>
       <c r="I41" s="3">
-        <v>8810600</v>
+        <v>8962500</v>
       </c>
       <c r="J41" s="3">
-        <v>9711200</v>
+        <v>9878600</v>
       </c>
       <c r="K41" s="3">
         <v>7511600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17147300</v>
+        <v>17443000</v>
       </c>
       <c r="E42" s="3">
-        <v>12291700</v>
+        <v>12503600</v>
       </c>
       <c r="F42" s="3">
-        <v>10918900</v>
+        <v>11107100</v>
       </c>
       <c r="G42" s="3">
-        <v>9757400</v>
+        <v>9925600</v>
       </c>
       <c r="H42" s="3">
-        <v>8782600</v>
+        <v>8934000</v>
       </c>
       <c r="I42" s="3">
-        <v>8692900</v>
+        <v>8842700</v>
       </c>
       <c r="J42" s="3">
-        <v>7726200</v>
+        <v>7859400</v>
       </c>
       <c r="K42" s="3">
         <v>6341200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11052700</v>
+        <v>11243300</v>
       </c>
       <c r="E43" s="3">
-        <v>11965800</v>
+        <v>12172100</v>
       </c>
       <c r="F43" s="3">
-        <v>11168300</v>
+        <v>11360900</v>
       </c>
       <c r="G43" s="3">
-        <v>10926700</v>
+        <v>11115100</v>
       </c>
       <c r="H43" s="3">
-        <v>9833600</v>
+        <v>10003100</v>
       </c>
       <c r="I43" s="3">
-        <v>10503600</v>
+        <v>10684700</v>
       </c>
       <c r="J43" s="3">
-        <v>10167800</v>
+        <v>10343100</v>
       </c>
       <c r="K43" s="3">
         <v>8404900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5474900</v>
+        <v>5569300</v>
       </c>
       <c r="E44" s="3">
-        <v>6062400</v>
+        <v>6166900</v>
       </c>
       <c r="F44" s="3">
-        <v>6430500</v>
+        <v>6541300</v>
       </c>
       <c r="G44" s="3">
-        <v>5946900</v>
+        <v>6049500</v>
       </c>
       <c r="H44" s="3">
-        <v>6339600</v>
+        <v>6448900</v>
       </c>
       <c r="I44" s="3">
-        <v>6175200</v>
+        <v>6281700</v>
       </c>
       <c r="J44" s="3">
-        <v>6811000</v>
+        <v>6928400</v>
       </c>
       <c r="K44" s="3">
         <v>6454400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5512500</v>
+        <v>5607600</v>
       </c>
       <c r="E45" s="3">
-        <v>4726300</v>
+        <v>4807800</v>
       </c>
       <c r="F45" s="3">
-        <v>4795400</v>
+        <v>4878100</v>
       </c>
       <c r="G45" s="3">
-        <v>4880000</v>
+        <v>4964100</v>
       </c>
       <c r="H45" s="3">
-        <v>4862000</v>
+        <v>4945800</v>
       </c>
       <c r="I45" s="3">
-        <v>4774300</v>
+        <v>4856700</v>
       </c>
       <c r="J45" s="3">
-        <v>4605100</v>
+        <v>4684500</v>
       </c>
       <c r="K45" s="3">
         <v>4434900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>53222100</v>
+        <v>54139800</v>
       </c>
       <c r="E46" s="3">
-        <v>48688600</v>
+        <v>49528000</v>
       </c>
       <c r="F46" s="3">
-        <v>48034200</v>
+        <v>48862300</v>
       </c>
       <c r="G46" s="3">
-        <v>40421100</v>
+        <v>41118000</v>
       </c>
       <c r="H46" s="3">
-        <v>38945600</v>
+        <v>39617100</v>
       </c>
       <c r="I46" s="3">
-        <v>38956500</v>
+        <v>39628200</v>
       </c>
       <c r="J46" s="3">
-        <v>39021300</v>
+        <v>39694100</v>
       </c>
       <c r="K46" s="3">
         <v>33147000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118173000</v>
+        <v>120210000</v>
       </c>
       <c r="E47" s="3">
-        <v>108805000</v>
+        <v>110681000</v>
       </c>
       <c r="F47" s="3">
-        <v>99816200</v>
+        <v>101537000</v>
       </c>
       <c r="G47" s="3">
-        <v>93837400</v>
+        <v>95455300</v>
       </c>
       <c r="H47" s="3">
-        <v>85692300</v>
+        <v>87169700</v>
       </c>
       <c r="I47" s="3">
-        <v>79171000</v>
+        <v>80536000</v>
       </c>
       <c r="J47" s="3">
-        <v>73488400</v>
+        <v>74755500</v>
       </c>
       <c r="K47" s="3">
         <v>66512700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12075600</v>
+        <v>12283800</v>
       </c>
       <c r="E48" s="3">
-        <v>7211100</v>
+        <v>7335400</v>
       </c>
       <c r="F48" s="3">
-        <v>6862300</v>
+        <v>6980600</v>
       </c>
       <c r="G48" s="3">
-        <v>7036100</v>
+        <v>7157400</v>
       </c>
       <c r="H48" s="3">
-        <v>7617200</v>
+        <v>7748500</v>
       </c>
       <c r="I48" s="3">
-        <v>6860600</v>
+        <v>6978900</v>
       </c>
       <c r="J48" s="3">
-        <v>6960100</v>
+        <v>7080100</v>
       </c>
       <c r="K48" s="3">
         <v>7831500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15685000</v>
+        <v>15955500</v>
       </c>
       <c r="E49" s="3">
-        <v>15650900</v>
+        <v>15920700</v>
       </c>
       <c r="F49" s="3">
-        <v>9815100</v>
+        <v>9984300</v>
       </c>
       <c r="G49" s="3">
-        <v>10270400</v>
+        <v>10447500</v>
       </c>
       <c r="H49" s="3">
-        <v>11340600</v>
+        <v>11536100</v>
       </c>
       <c r="I49" s="3">
-        <v>11169600</v>
+        <v>11362100</v>
       </c>
       <c r="J49" s="3">
-        <v>12690100</v>
+        <v>12908900</v>
       </c>
       <c r="K49" s="3">
         <v>11891900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14649500</v>
+        <v>14902100</v>
       </c>
       <c r="E52" s="3">
-        <v>14353900</v>
+        <v>14601300</v>
       </c>
       <c r="F52" s="3">
-        <v>12400400</v>
+        <v>12614200</v>
       </c>
       <c r="G52" s="3">
-        <v>12324900</v>
+        <v>12537400</v>
       </c>
       <c r="H52" s="3">
-        <v>11133400</v>
+        <v>11325300</v>
       </c>
       <c r="I52" s="3">
-        <v>10785000</v>
+        <v>10970900</v>
       </c>
       <c r="J52" s="3">
-        <v>10137000</v>
+        <v>10311800</v>
       </c>
       <c r="K52" s="3">
         <v>9526000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>213805000</v>
+        <v>217491000</v>
       </c>
       <c r="E54" s="3">
-        <v>194709000</v>
+        <v>198066000</v>
       </c>
       <c r="F54" s="3">
-        <v>176928000</v>
+        <v>179979000</v>
       </c>
       <c r="G54" s="3">
-        <v>163890000</v>
+        <v>166716000</v>
       </c>
       <c r="H54" s="3">
-        <v>154729000</v>
+        <v>157397000</v>
       </c>
       <c r="I54" s="3">
-        <v>146943000</v>
+        <v>149476000</v>
       </c>
       <c r="J54" s="3">
-        <v>142297000</v>
+        <v>144750000</v>
       </c>
       <c r="K54" s="3">
         <v>129178000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3533900</v>
+        <v>3594800</v>
       </c>
       <c r="E57" s="3">
-        <v>4566900</v>
+        <v>4645700</v>
       </c>
       <c r="F57" s="3">
-        <v>4348100</v>
+        <v>4423100</v>
       </c>
       <c r="G57" s="3">
-        <v>5010300</v>
+        <v>5096700</v>
       </c>
       <c r="H57" s="3">
-        <v>5112900</v>
+        <v>5201100</v>
       </c>
       <c r="I57" s="3">
-        <v>5774200</v>
+        <v>5873700</v>
       </c>
       <c r="J57" s="3">
-        <v>6615100</v>
+        <v>6729100</v>
       </c>
       <c r="K57" s="3">
         <v>5200400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7795000</v>
+        <v>7929400</v>
       </c>
       <c r="E58" s="3">
-        <v>7341200</v>
+        <v>7467800</v>
       </c>
       <c r="F58" s="3">
-        <v>6696600</v>
+        <v>6812000</v>
       </c>
       <c r="G58" s="3">
-        <v>4807800</v>
+        <v>4890700</v>
       </c>
       <c r="H58" s="3">
-        <v>3126800</v>
+        <v>3180700</v>
       </c>
       <c r="I58" s="3">
-        <v>2055800</v>
+        <v>2091200</v>
       </c>
       <c r="J58" s="3">
-        <v>5973300</v>
+        <v>6076300</v>
       </c>
       <c r="K58" s="3">
         <v>3640300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46582400</v>
+        <v>47385500</v>
       </c>
       <c r="E59" s="3">
-        <v>44512600</v>
+        <v>45280000</v>
       </c>
       <c r="F59" s="3">
-        <v>41113900</v>
+        <v>41822700</v>
       </c>
       <c r="G59" s="3">
-        <v>38639700</v>
+        <v>39305900</v>
       </c>
       <c r="H59" s="3">
-        <v>36589600</v>
+        <v>37220500</v>
       </c>
       <c r="I59" s="3">
-        <v>36209200</v>
+        <v>36833500</v>
       </c>
       <c r="J59" s="3">
-        <v>34271300</v>
+        <v>34862200</v>
       </c>
       <c r="K59" s="3">
         <v>31804100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57911300</v>
+        <v>58909800</v>
       </c>
       <c r="E60" s="3">
-        <v>56420700</v>
+        <v>57393500</v>
       </c>
       <c r="F60" s="3">
-        <v>52158600</v>
+        <v>53057900</v>
       </c>
       <c r="G60" s="3">
-        <v>48457700</v>
+        <v>49293200</v>
       </c>
       <c r="H60" s="3">
-        <v>44829400</v>
+        <v>45602300</v>
       </c>
       <c r="I60" s="3">
-        <v>44039100</v>
+        <v>44798400</v>
       </c>
       <c r="J60" s="3">
-        <v>44391900</v>
+        <v>45157300</v>
       </c>
       <c r="K60" s="3">
         <v>39224200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5892500</v>
+        <v>5994100</v>
       </c>
       <c r="E61" s="3">
-        <v>5274500</v>
+        <v>5365400</v>
       </c>
       <c r="F61" s="3">
-        <v>5785600</v>
+        <v>5885400</v>
       </c>
       <c r="G61" s="3">
-        <v>6324000</v>
+        <v>6433000</v>
       </c>
       <c r="H61" s="3">
-        <v>5165300</v>
+        <v>5254400</v>
       </c>
       <c r="I61" s="3">
-        <v>6608200</v>
+        <v>6722100</v>
       </c>
       <c r="J61" s="3">
-        <v>8506500</v>
+        <v>8653200</v>
       </c>
       <c r="K61" s="3">
         <v>8530300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105482000</v>
+        <v>107301000</v>
       </c>
       <c r="E62" s="3">
-        <v>91759800</v>
+        <v>93341900</v>
       </c>
       <c r="F62" s="3">
-        <v>85052900</v>
+        <v>86519300</v>
       </c>
       <c r="G62" s="3">
-        <v>79899600</v>
+        <v>81277200</v>
       </c>
       <c r="H62" s="3">
-        <v>75670500</v>
+        <v>76975100</v>
       </c>
       <c r="I62" s="3">
-        <v>69070500</v>
+        <v>70261300</v>
       </c>
       <c r="J62" s="3">
-        <v>63532800</v>
+        <v>64628100</v>
       </c>
       <c r="K62" s="3">
         <v>57108100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>175522000</v>
+        <v>178549000</v>
       </c>
       <c r="E66" s="3">
-        <v>159943000</v>
+        <v>162700000</v>
       </c>
       <c r="F66" s="3">
-        <v>149391000</v>
+        <v>151967000</v>
       </c>
       <c r="G66" s="3">
-        <v>140716000</v>
+        <v>143142000</v>
       </c>
       <c r="H66" s="3">
-        <v>131869000</v>
+        <v>134143000</v>
       </c>
       <c r="I66" s="3">
-        <v>125440000</v>
+        <v>127603000</v>
       </c>
       <c r="J66" s="3">
-        <v>121341000</v>
+        <v>123434000</v>
       </c>
       <c r="K66" s="3">
         <v>109251000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25695000</v>
+        <v>26138000</v>
       </c>
       <c r="E72" s="3">
-        <v>21535000</v>
+        <v>21906300</v>
       </c>
       <c r="F72" s="3">
-        <v>13366800</v>
+        <v>13597300</v>
       </c>
       <c r="G72" s="3">
-        <v>9134900</v>
+        <v>9292400</v>
       </c>
       <c r="H72" s="3">
-        <v>8689200</v>
+        <v>8839000</v>
       </c>
       <c r="I72" s="3">
-        <v>7551700</v>
+        <v>7681900</v>
       </c>
       <c r="J72" s="3">
-        <v>8725600</v>
+        <v>8876100</v>
       </c>
       <c r="K72" s="3">
         <v>9951500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38282800</v>
+        <v>38942900</v>
       </c>
       <c r="E76" s="3">
-        <v>34766400</v>
+        <v>35365800</v>
       </c>
       <c r="F76" s="3">
-        <v>27537200</v>
+        <v>28011900</v>
       </c>
       <c r="G76" s="3">
-        <v>23174400</v>
+        <v>23574000</v>
       </c>
       <c r="H76" s="3">
-        <v>22859800</v>
+        <v>23253900</v>
       </c>
       <c r="I76" s="3">
-        <v>21502500</v>
+        <v>21873200</v>
       </c>
       <c r="J76" s="3">
-        <v>20955500</v>
+        <v>21316800</v>
       </c>
       <c r="K76" s="3">
         <v>19927700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5408600</v>
+        <v>5495900</v>
       </c>
       <c r="E81" s="3">
-        <v>8512200</v>
+        <v>8649600</v>
       </c>
       <c r="F81" s="3">
-        <v>4559500</v>
+        <v>4633100</v>
       </c>
       <c r="G81" s="3">
-        <v>680900</v>
+        <v>691800</v>
       </c>
       <c r="H81" s="3">
-        <v>1373000</v>
+        <v>1395100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1170400</v>
+        <v>-1189300</v>
       </c>
       <c r="J81" s="3">
-        <v>-1192500</v>
+        <v>-1211800</v>
       </c>
       <c r="K81" s="3">
         <v>377600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3870600</v>
+        <v>3933100</v>
       </c>
       <c r="E83" s="3">
-        <v>3474700</v>
+        <v>3530800</v>
       </c>
       <c r="F83" s="3">
-        <v>3357800</v>
+        <v>3412000</v>
       </c>
       <c r="G83" s="3">
-        <v>3038300</v>
+        <v>3087300</v>
       </c>
       <c r="H83" s="3">
-        <v>3689000</v>
+        <v>3748500</v>
       </c>
       <c r="I83" s="3">
-        <v>3294500</v>
+        <v>3347700</v>
       </c>
       <c r="J83" s="3">
-        <v>3499500</v>
+        <v>3556000</v>
       </c>
       <c r="K83" s="3">
         <v>3424500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12511800</v>
+        <v>12713900</v>
       </c>
       <c r="E89" s="3">
-        <v>11658900</v>
+        <v>11847200</v>
       </c>
       <c r="F89" s="3">
-        <v>11588000</v>
+        <v>11775100</v>
       </c>
       <c r="G89" s="3">
-        <v>7518000</v>
+        <v>7639400</v>
       </c>
       <c r="H89" s="3">
-        <v>6959000</v>
+        <v>7071400</v>
       </c>
       <c r="I89" s="3">
-        <v>7010600</v>
+        <v>7123800</v>
       </c>
       <c r="J89" s="3">
-        <v>6169600</v>
+        <v>6269300</v>
       </c>
       <c r="K89" s="3">
         <v>4328300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4085400</v>
+        <v>-4151300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2904500</v>
+        <v>-2951400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2443200</v>
+        <v>-2482600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3098300</v>
+        <v>-3148300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3487600</v>
+        <v>-3543900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2005900</v>
+        <v>-2038200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2633300</v>
+        <v>-2675800</v>
       </c>
       <c r="K91" s="3">
         <v>-2967800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12562700</v>
+        <v>-12765500</v>
       </c>
       <c r="E94" s="3">
-        <v>-12146200</v>
+        <v>-12342300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7646300</v>
+        <v>-7769800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11649400</v>
+        <v>-11837500</v>
       </c>
       <c r="H94" s="3">
-        <v>-9572400</v>
+        <v>-9727000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5942200</v>
+        <v>-6038200</v>
       </c>
       <c r="J94" s="3">
-        <v>-6600600</v>
+        <v>-6707100</v>
       </c>
       <c r="K94" s="3">
         <v>-6411000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-460500</v>
+        <v>-468000</v>
       </c>
       <c r="E96" s="3">
-        <v>-353600</v>
+        <v>-359400</v>
       </c>
       <c r="F96" s="3">
-        <v>-264700</v>
+        <v>-268900</v>
       </c>
       <c r="G96" s="3">
-        <v>-235000</v>
+        <v>-238800</v>
       </c>
       <c r="H96" s="3">
-        <v>-118500</v>
+        <v>-120400</v>
       </c>
       <c r="I96" s="3">
-        <v>-122300</v>
+        <v>-124200</v>
       </c>
       <c r="J96" s="3">
-        <v>-238200</v>
+        <v>-242100</v>
       </c>
       <c r="K96" s="3">
         <v>-227800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>610000</v>
+        <v>619800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1141600</v>
+        <v>-1160000</v>
       </c>
       <c r="F100" s="3">
-        <v>2289600</v>
+        <v>2326500</v>
       </c>
       <c r="G100" s="3">
-        <v>4201900</v>
+        <v>4269700</v>
       </c>
       <c r="H100" s="3">
-        <v>3531300</v>
+        <v>3588400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2445100</v>
+        <v>-2484600</v>
       </c>
       <c r="J100" s="3">
-        <v>1931200</v>
+        <v>1962400</v>
       </c>
       <c r="K100" s="3">
         <v>804700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-201100</v>
+        <v>-204300</v>
       </c>
       <c r="E101" s="3">
-        <v>487400</v>
+        <v>495300</v>
       </c>
       <c r="F101" s="3">
-        <v>-492800</v>
+        <v>-500700</v>
       </c>
       <c r="G101" s="3">
-        <v>-288600</v>
+        <v>-293200</v>
       </c>
       <c r="H101" s="3">
-        <v>-600200</v>
+        <v>-609900</v>
       </c>
       <c r="I101" s="3">
-        <v>475100</v>
+        <v>482700</v>
       </c>
       <c r="J101" s="3">
-        <v>544500</v>
+        <v>553300</v>
       </c>
       <c r="K101" s="3">
         <v>657900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>358100</v>
+        <v>363900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1141400</v>
+        <v>-1159900</v>
       </c>
       <c r="F102" s="3">
-        <v>5738500</v>
+        <v>5831100</v>
       </c>
       <c r="G102" s="3">
-        <v>-218000</v>
+        <v>-221600</v>
       </c>
       <c r="H102" s="3">
-        <v>317700</v>
+        <v>322800</v>
       </c>
       <c r="I102" s="3">
-        <v>-901600</v>
+        <v>-916200</v>
       </c>
       <c r="J102" s="3">
-        <v>2044800</v>
+        <v>2077800</v>
       </c>
       <c r="K102" s="3">
         <v>-620100</v>

--- a/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>77973300</v>
+        <v>79377500</v>
       </c>
       <c r="E8" s="3">
-        <v>81804100</v>
+        <v>83277300</v>
       </c>
       <c r="F8" s="3">
-        <v>80655200</v>
+        <v>82107700</v>
       </c>
       <c r="G8" s="3">
-        <v>71774700</v>
+        <v>73067200</v>
       </c>
       <c r="H8" s="3">
-        <v>76517900</v>
+        <v>77895900</v>
       </c>
       <c r="I8" s="3">
-        <v>77557900</v>
+        <v>78954600</v>
       </c>
       <c r="J8" s="3">
-        <v>73323000</v>
+        <v>74643400</v>
       </c>
       <c r="K8" s="3">
         <v>61771100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51219200</v>
+        <v>52141500</v>
       </c>
       <c r="E9" s="3">
-        <v>54582000</v>
+        <v>55565000</v>
       </c>
       <c r="F9" s="3">
-        <v>54486800</v>
+        <v>55468000</v>
       </c>
       <c r="G9" s="3">
-        <v>49236200</v>
+        <v>50122900</v>
       </c>
       <c r="H9" s="3">
-        <v>52925100</v>
+        <v>53878200</v>
       </c>
       <c r="I9" s="3">
-        <v>53749600</v>
+        <v>54717600</v>
       </c>
       <c r="J9" s="3">
-        <v>51827300</v>
+        <v>52760600</v>
       </c>
       <c r="K9" s="3">
         <v>44232300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26754100</v>
+        <v>27236000</v>
       </c>
       <c r="E10" s="3">
-        <v>27222100</v>
+        <v>27712300</v>
       </c>
       <c r="F10" s="3">
-        <v>26168400</v>
+        <v>26639700</v>
       </c>
       <c r="G10" s="3">
-        <v>22538500</v>
+        <v>22944400</v>
       </c>
       <c r="H10" s="3">
-        <v>23592900</v>
+        <v>24017700</v>
       </c>
       <c r="I10" s="3">
-        <v>23808300</v>
+        <v>24237100</v>
       </c>
       <c r="J10" s="3">
-        <v>21495700</v>
+        <v>21882800</v>
       </c>
       <c r="K10" s="3">
         <v>17538900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4713300</v>
+        <v>4798200</v>
       </c>
       <c r="E12" s="3">
-        <v>4542500</v>
+        <v>4624400</v>
       </c>
       <c r="F12" s="3">
-        <v>4328400</v>
+        <v>4406400</v>
       </c>
       <c r="G12" s="3">
-        <v>4224000</v>
+        <v>4300100</v>
       </c>
       <c r="H12" s="3">
-        <v>4419600</v>
+        <v>4499200</v>
       </c>
       <c r="I12" s="3">
-        <v>4383200</v>
+        <v>4462100</v>
       </c>
       <c r="J12" s="3">
-        <v>4399300</v>
+        <v>4478500</v>
       </c>
       <c r="K12" s="3">
         <v>4305100</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>281100</v>
+        <v>286200</v>
       </c>
       <c r="E14" s="3">
-        <v>443000</v>
+        <v>451000</v>
       </c>
       <c r="F14" s="3">
-        <v>364400</v>
+        <v>370900</v>
       </c>
       <c r="G14" s="3">
-        <v>1057900</v>
+        <v>1077000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69992200</v>
+        <v>71252600</v>
       </c>
       <c r="E17" s="3">
-        <v>73362500</v>
+        <v>74683700</v>
       </c>
       <c r="F17" s="3">
-        <v>73718100</v>
+        <v>75045700</v>
       </c>
       <c r="G17" s="3">
-        <v>69049300</v>
+        <v>70292800</v>
       </c>
       <c r="H17" s="3">
-        <v>73740700</v>
+        <v>75068700</v>
       </c>
       <c r="I17" s="3">
-        <v>76910800</v>
+        <v>78295900</v>
       </c>
       <c r="J17" s="3">
-        <v>73072900</v>
+        <v>74388800</v>
       </c>
       <c r="K17" s="3">
         <v>59712200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7981100</v>
+        <v>8124900</v>
       </c>
       <c r="E18" s="3">
-        <v>8441600</v>
+        <v>8593600</v>
       </c>
       <c r="F18" s="3">
-        <v>6937100</v>
+        <v>7062000</v>
       </c>
       <c r="G18" s="3">
-        <v>2725300</v>
+        <v>2774400</v>
       </c>
       <c r="H18" s="3">
-        <v>2777200</v>
+        <v>2827200</v>
       </c>
       <c r="I18" s="3">
-        <v>647100</v>
+        <v>658700</v>
       </c>
       <c r="J18" s="3">
-        <v>250100</v>
+        <v>254600</v>
       </c>
       <c r="K18" s="3">
         <v>2058900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-329600</v>
+        <v>-335600</v>
       </c>
       <c r="E20" s="3">
-        <v>1226100</v>
+        <v>1248100</v>
       </c>
       <c r="F20" s="3">
-        <v>-210000</v>
+        <v>-213800</v>
       </c>
       <c r="G20" s="3">
-        <v>-212800</v>
+        <v>-216600</v>
       </c>
       <c r="H20" s="3">
-        <v>336000</v>
+        <v>342000</v>
       </c>
       <c r="I20" s="3">
-        <v>-49300</v>
+        <v>-50200</v>
       </c>
       <c r="J20" s="3">
-        <v>214300</v>
+        <v>218200</v>
       </c>
       <c r="K20" s="3">
         <v>383900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11567900</v>
+        <v>11784900</v>
       </c>
       <c r="E21" s="3">
-        <v>13183500</v>
+        <v>13428700</v>
       </c>
       <c r="F21" s="3">
-        <v>10124700</v>
+        <v>10314500</v>
       </c>
       <c r="G21" s="3">
-        <v>5586800</v>
+        <v>5694200</v>
       </c>
       <c r="H21" s="3">
-        <v>6845900</v>
+        <v>6977400</v>
       </c>
       <c r="I21" s="3">
-        <v>3931300</v>
+        <v>4009400</v>
       </c>
       <c r="J21" s="3">
-        <v>4005400</v>
+        <v>4085300</v>
       </c>
       <c r="K21" s="3">
         <v>5874900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>104700</v>
+        <v>106600</v>
       </c>
       <c r="E22" s="3">
-        <v>117700</v>
+        <v>119800</v>
       </c>
       <c r="F22" s="3">
-        <v>128100</v>
+        <v>130400</v>
       </c>
       <c r="G22" s="3">
-        <v>137300</v>
+        <v>139800</v>
       </c>
       <c r="H22" s="3">
-        <v>238700</v>
+        <v>243000</v>
       </c>
       <c r="I22" s="3">
-        <v>222800</v>
+        <v>226800</v>
       </c>
       <c r="J22" s="3">
-        <v>221500</v>
+        <v>225500</v>
       </c>
       <c r="K22" s="3">
         <v>242300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7546800</v>
+        <v>7682700</v>
       </c>
       <c r="E23" s="3">
-        <v>9550000</v>
+        <v>9721900</v>
       </c>
       <c r="F23" s="3">
-        <v>6599000</v>
+        <v>6717900</v>
       </c>
       <c r="G23" s="3">
-        <v>2375300</v>
+        <v>2418100</v>
       </c>
       <c r="H23" s="3">
-        <v>2874500</v>
+        <v>2926300</v>
       </c>
       <c r="I23" s="3">
-        <v>375000</v>
+        <v>381800</v>
       </c>
       <c r="J23" s="3">
-        <v>243000</v>
+        <v>247400</v>
       </c>
       <c r="K23" s="3">
         <v>2200500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1672700</v>
+        <v>1702800</v>
       </c>
       <c r="E24" s="3">
-        <v>425700</v>
+        <v>433400</v>
       </c>
       <c r="F24" s="3">
-        <v>1432700</v>
+        <v>1458500</v>
       </c>
       <c r="G24" s="3">
-        <v>1171100</v>
+        <v>1192200</v>
       </c>
       <c r="H24" s="3">
-        <v>894800</v>
+        <v>910900</v>
       </c>
       <c r="I24" s="3">
-        <v>837600</v>
+        <v>852700</v>
       </c>
       <c r="J24" s="3">
-        <v>892900</v>
+        <v>908900</v>
       </c>
       <c r="K24" s="3">
         <v>1276200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5874100</v>
+        <v>5979900</v>
       </c>
       <c r="E26" s="3">
-        <v>9124200</v>
+        <v>9288500</v>
       </c>
       <c r="F26" s="3">
-        <v>5166300</v>
+        <v>5259400</v>
       </c>
       <c r="G26" s="3">
-        <v>1204200</v>
+        <v>1225900</v>
       </c>
       <c r="H26" s="3">
-        <v>1979700</v>
+        <v>2015400</v>
       </c>
       <c r="I26" s="3">
-        <v>-462600</v>
+        <v>-470900</v>
       </c>
       <c r="J26" s="3">
-        <v>-649900</v>
+        <v>-661600</v>
       </c>
       <c r="K26" s="3">
         <v>924300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5495900</v>
+        <v>5594900</v>
       </c>
       <c r="E27" s="3">
-        <v>8649600</v>
+        <v>8805400</v>
       </c>
       <c r="F27" s="3">
-        <v>4633100</v>
+        <v>4716500</v>
       </c>
       <c r="G27" s="3">
-        <v>691800</v>
+        <v>704300</v>
       </c>
       <c r="H27" s="3">
-        <v>1395100</v>
+        <v>1420300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1189300</v>
+        <v>-1210700</v>
       </c>
       <c r="J27" s="3">
-        <v>-1211800</v>
+        <v>-1233600</v>
       </c>
       <c r="K27" s="3">
         <v>377600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>329600</v>
+        <v>335600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1226100</v>
+        <v>-1248100</v>
       </c>
       <c r="F32" s="3">
-        <v>210000</v>
+        <v>213800</v>
       </c>
       <c r="G32" s="3">
-        <v>212800</v>
+        <v>216600</v>
       </c>
       <c r="H32" s="3">
-        <v>-336000</v>
+        <v>-342000</v>
       </c>
       <c r="I32" s="3">
-        <v>49300</v>
+        <v>50200</v>
       </c>
       <c r="J32" s="3">
-        <v>-214300</v>
+        <v>-218200</v>
       </c>
       <c r="K32" s="3">
         <v>-383900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5495900</v>
+        <v>5594900</v>
       </c>
       <c r="E33" s="3">
-        <v>8649600</v>
+        <v>8805400</v>
       </c>
       <c r="F33" s="3">
-        <v>4633100</v>
+        <v>4716500</v>
       </c>
       <c r="G33" s="3">
-        <v>691800</v>
+        <v>704300</v>
       </c>
       <c r="H33" s="3">
-        <v>1395100</v>
+        <v>1420300</v>
       </c>
       <c r="I33" s="3">
-        <v>-1189300</v>
+        <v>-1210700</v>
       </c>
       <c r="J33" s="3">
-        <v>-1211800</v>
+        <v>-1233600</v>
       </c>
       <c r="K33" s="3">
         <v>377600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5495900</v>
+        <v>5594900</v>
       </c>
       <c r="E35" s="3">
-        <v>8649600</v>
+        <v>8805400</v>
       </c>
       <c r="F35" s="3">
-        <v>4633100</v>
+        <v>4716500</v>
       </c>
       <c r="G35" s="3">
-        <v>691800</v>
+        <v>704300</v>
       </c>
       <c r="H35" s="3">
-        <v>1395100</v>
+        <v>1420300</v>
       </c>
       <c r="I35" s="3">
-        <v>-1189300</v>
+        <v>-1210700</v>
       </c>
       <c r="J35" s="3">
-        <v>-1211800</v>
+        <v>-1233600</v>
       </c>
       <c r="K35" s="3">
         <v>377600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14276700</v>
+        <v>14533800</v>
       </c>
       <c r="E41" s="3">
-        <v>13877500</v>
+        <v>14127400</v>
       </c>
       <c r="F41" s="3">
-        <v>14974900</v>
+        <v>15244600</v>
       </c>
       <c r="G41" s="3">
-        <v>9063700</v>
+        <v>9227000</v>
       </c>
       <c r="H41" s="3">
-        <v>9285300</v>
+        <v>9452500</v>
       </c>
       <c r="I41" s="3">
-        <v>8962500</v>
+        <v>9123900</v>
       </c>
       <c r="J41" s="3">
-        <v>9878600</v>
+        <v>10056500</v>
       </c>
       <c r="K41" s="3">
         <v>7511600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17443000</v>
+        <v>17757100</v>
       </c>
       <c r="E42" s="3">
-        <v>12503600</v>
+        <v>12728800</v>
       </c>
       <c r="F42" s="3">
-        <v>11107100</v>
+        <v>11307100</v>
       </c>
       <c r="G42" s="3">
-        <v>9925600</v>
+        <v>10104300</v>
       </c>
       <c r="H42" s="3">
-        <v>8934000</v>
+        <v>9094900</v>
       </c>
       <c r="I42" s="3">
-        <v>8842700</v>
+        <v>9002000</v>
       </c>
       <c r="J42" s="3">
-        <v>7859400</v>
+        <v>8001000</v>
       </c>
       <c r="K42" s="3">
         <v>6341200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11243300</v>
+        <v>11445800</v>
       </c>
       <c r="E43" s="3">
-        <v>12172100</v>
+        <v>12391300</v>
       </c>
       <c r="F43" s="3">
-        <v>11360900</v>
+        <v>11565500</v>
       </c>
       <c r="G43" s="3">
-        <v>11115100</v>
+        <v>11315200</v>
       </c>
       <c r="H43" s="3">
-        <v>10003100</v>
+        <v>10183200</v>
       </c>
       <c r="I43" s="3">
-        <v>10684700</v>
+        <v>10877100</v>
       </c>
       <c r="J43" s="3">
-        <v>10343100</v>
+        <v>10529400</v>
       </c>
       <c r="K43" s="3">
         <v>8404900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5569300</v>
+        <v>5669600</v>
       </c>
       <c r="E44" s="3">
-        <v>6166900</v>
+        <v>6278000</v>
       </c>
       <c r="F44" s="3">
-        <v>6541300</v>
+        <v>6659100</v>
       </c>
       <c r="G44" s="3">
-        <v>6049500</v>
+        <v>6158400</v>
       </c>
       <c r="H44" s="3">
-        <v>6448900</v>
+        <v>6565000</v>
       </c>
       <c r="I44" s="3">
-        <v>6281700</v>
+        <v>6394800</v>
       </c>
       <c r="J44" s="3">
-        <v>6928400</v>
+        <v>7053200</v>
       </c>
       <c r="K44" s="3">
         <v>6454400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5607600</v>
+        <v>5708500</v>
       </c>
       <c r="E45" s="3">
-        <v>4807800</v>
+        <v>4894400</v>
       </c>
       <c r="F45" s="3">
-        <v>4878100</v>
+        <v>4965900</v>
       </c>
       <c r="G45" s="3">
-        <v>4964100</v>
+        <v>5053500</v>
       </c>
       <c r="H45" s="3">
-        <v>4945800</v>
+        <v>5034900</v>
       </c>
       <c r="I45" s="3">
-        <v>4856700</v>
+        <v>4944100</v>
       </c>
       <c r="J45" s="3">
-        <v>4684500</v>
+        <v>4768900</v>
       </c>
       <c r="K45" s="3">
         <v>4434900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54139800</v>
+        <v>55114700</v>
       </c>
       <c r="E46" s="3">
-        <v>49528000</v>
+        <v>50419900</v>
       </c>
       <c r="F46" s="3">
-        <v>48862300</v>
+        <v>49742300</v>
       </c>
       <c r="G46" s="3">
-        <v>41118000</v>
+        <v>41858500</v>
       </c>
       <c r="H46" s="3">
-        <v>39617100</v>
+        <v>40330500</v>
       </c>
       <c r="I46" s="3">
-        <v>39628200</v>
+        <v>40341800</v>
       </c>
       <c r="J46" s="3">
-        <v>39694100</v>
+        <v>40409000</v>
       </c>
       <c r="K46" s="3">
         <v>33147000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120210000</v>
+        <v>122375000</v>
       </c>
       <c r="E47" s="3">
-        <v>110681000</v>
+        <v>112674000</v>
       </c>
       <c r="F47" s="3">
-        <v>101537000</v>
+        <v>103366000</v>
       </c>
       <c r="G47" s="3">
-        <v>95455300</v>
+        <v>97174300</v>
       </c>
       <c r="H47" s="3">
-        <v>87169700</v>
+        <v>88739500</v>
       </c>
       <c r="I47" s="3">
-        <v>80536000</v>
+        <v>81986300</v>
       </c>
       <c r="J47" s="3">
-        <v>74755500</v>
+        <v>76101700</v>
       </c>
       <c r="K47" s="3">
         <v>66512700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12283800</v>
+        <v>12505100</v>
       </c>
       <c r="E48" s="3">
-        <v>7335400</v>
+        <v>7467500</v>
       </c>
       <c r="F48" s="3">
-        <v>6980600</v>
+        <v>7106300</v>
       </c>
       <c r="G48" s="3">
-        <v>7157400</v>
+        <v>7286300</v>
       </c>
       <c r="H48" s="3">
-        <v>7748500</v>
+        <v>7888100</v>
       </c>
       <c r="I48" s="3">
-        <v>6978900</v>
+        <v>7104500</v>
       </c>
       <c r="J48" s="3">
-        <v>7080100</v>
+        <v>7207600</v>
       </c>
       <c r="K48" s="3">
         <v>7831500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15955500</v>
+        <v>16242800</v>
       </c>
       <c r="E49" s="3">
-        <v>15920700</v>
+        <v>16207400</v>
       </c>
       <c r="F49" s="3">
-        <v>9984300</v>
+        <v>10164100</v>
       </c>
       <c r="G49" s="3">
-        <v>10447500</v>
+        <v>10635600</v>
       </c>
       <c r="H49" s="3">
-        <v>11536100</v>
+        <v>11743800</v>
       </c>
       <c r="I49" s="3">
-        <v>11362100</v>
+        <v>11566700</v>
       </c>
       <c r="J49" s="3">
-        <v>12908900</v>
+        <v>13141300</v>
       </c>
       <c r="K49" s="3">
         <v>11891900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14902100</v>
+        <v>15170500</v>
       </c>
       <c r="E52" s="3">
-        <v>14601300</v>
+        <v>14864300</v>
       </c>
       <c r="F52" s="3">
-        <v>12614200</v>
+        <v>12841400</v>
       </c>
       <c r="G52" s="3">
-        <v>12537400</v>
+        <v>12763200</v>
       </c>
       <c r="H52" s="3">
-        <v>11325300</v>
+        <v>11529300</v>
       </c>
       <c r="I52" s="3">
-        <v>10970900</v>
+        <v>11168500</v>
       </c>
       <c r="J52" s="3">
-        <v>10311800</v>
+        <v>10497500</v>
       </c>
       <c r="K52" s="3">
         <v>9526000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217491000</v>
+        <v>221408000</v>
       </c>
       <c r="E54" s="3">
-        <v>198066000</v>
+        <v>201633000</v>
       </c>
       <c r="F54" s="3">
-        <v>179979000</v>
+        <v>183220000</v>
       </c>
       <c r="G54" s="3">
-        <v>166716000</v>
+        <v>169718000</v>
       </c>
       <c r="H54" s="3">
-        <v>157397000</v>
+        <v>160231000</v>
       </c>
       <c r="I54" s="3">
-        <v>149476000</v>
+        <v>152168000</v>
       </c>
       <c r="J54" s="3">
-        <v>144750000</v>
+        <v>147357000</v>
       </c>
       <c r="K54" s="3">
         <v>129178000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3594800</v>
+        <v>3659600</v>
       </c>
       <c r="E57" s="3">
-        <v>4645700</v>
+        <v>4729300</v>
       </c>
       <c r="F57" s="3">
-        <v>4423100</v>
+        <v>4502800</v>
       </c>
       <c r="G57" s="3">
-        <v>5096700</v>
+        <v>5188400</v>
       </c>
       <c r="H57" s="3">
-        <v>5201100</v>
+        <v>5294800</v>
       </c>
       <c r="I57" s="3">
-        <v>5873700</v>
+        <v>5979500</v>
       </c>
       <c r="J57" s="3">
-        <v>6729100</v>
+        <v>6850300</v>
       </c>
       <c r="K57" s="3">
         <v>5200400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7929400</v>
+        <v>8072200</v>
       </c>
       <c r="E58" s="3">
-        <v>7467800</v>
+        <v>7602300</v>
       </c>
       <c r="F58" s="3">
-        <v>6812000</v>
+        <v>6934700</v>
       </c>
       <c r="G58" s="3">
-        <v>4890700</v>
+        <v>4978700</v>
       </c>
       <c r="H58" s="3">
-        <v>3180700</v>
+        <v>3238000</v>
       </c>
       <c r="I58" s="3">
-        <v>2091200</v>
+        <v>2128900</v>
       </c>
       <c r="J58" s="3">
-        <v>6076300</v>
+        <v>6185700</v>
       </c>
       <c r="K58" s="3">
         <v>3640300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47385500</v>
+        <v>48238800</v>
       </c>
       <c r="E59" s="3">
-        <v>45280000</v>
+        <v>46095400</v>
       </c>
       <c r="F59" s="3">
-        <v>41822700</v>
+        <v>42575900</v>
       </c>
       <c r="G59" s="3">
-        <v>39305900</v>
+        <v>40013700</v>
       </c>
       <c r="H59" s="3">
-        <v>37220500</v>
+        <v>37890800</v>
       </c>
       <c r="I59" s="3">
-        <v>36833500</v>
+        <v>37496800</v>
       </c>
       <c r="J59" s="3">
-        <v>34862200</v>
+        <v>35490000</v>
       </c>
       <c r="K59" s="3">
         <v>31804100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58909800</v>
+        <v>59970700</v>
       </c>
       <c r="E60" s="3">
-        <v>57393500</v>
+        <v>58427000</v>
       </c>
       <c r="F60" s="3">
-        <v>53057900</v>
+        <v>54013400</v>
       </c>
       <c r="G60" s="3">
-        <v>49293200</v>
+        <v>50180900</v>
       </c>
       <c r="H60" s="3">
-        <v>45602300</v>
+        <v>46423500</v>
       </c>
       <c r="I60" s="3">
-        <v>44798400</v>
+        <v>45605100</v>
       </c>
       <c r="J60" s="3">
-        <v>45157300</v>
+        <v>45970500</v>
       </c>
       <c r="K60" s="3">
         <v>39224200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5994100</v>
+        <v>6102000</v>
       </c>
       <c r="E61" s="3">
-        <v>5365400</v>
+        <v>5462100</v>
       </c>
       <c r="F61" s="3">
-        <v>5885400</v>
+        <v>5991400</v>
       </c>
       <c r="G61" s="3">
-        <v>6433000</v>
+        <v>6548800</v>
       </c>
       <c r="H61" s="3">
-        <v>5254400</v>
+        <v>5349000</v>
       </c>
       <c r="I61" s="3">
-        <v>6722100</v>
+        <v>6843200</v>
       </c>
       <c r="J61" s="3">
-        <v>8653200</v>
+        <v>8809000</v>
       </c>
       <c r="K61" s="3">
         <v>8530300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>107301000</v>
+        <v>109233000</v>
       </c>
       <c r="E62" s="3">
-        <v>93341900</v>
+        <v>95022800</v>
       </c>
       <c r="F62" s="3">
-        <v>86519300</v>
+        <v>88077400</v>
       </c>
       <c r="G62" s="3">
-        <v>81277200</v>
+        <v>82740900</v>
       </c>
       <c r="H62" s="3">
-        <v>76975100</v>
+        <v>78361400</v>
       </c>
       <c r="I62" s="3">
-        <v>70261300</v>
+        <v>71526600</v>
       </c>
       <c r="J62" s="3">
-        <v>64628100</v>
+        <v>65792000</v>
       </c>
       <c r="K62" s="3">
         <v>57108100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>178549000</v>
+        <v>181764000</v>
       </c>
       <c r="E66" s="3">
-        <v>162700000</v>
+        <v>165630000</v>
       </c>
       <c r="F66" s="3">
-        <v>151967000</v>
+        <v>154703000</v>
       </c>
       <c r="G66" s="3">
-        <v>143142000</v>
+        <v>145719000</v>
       </c>
       <c r="H66" s="3">
-        <v>134143000</v>
+        <v>136559000</v>
       </c>
       <c r="I66" s="3">
-        <v>127603000</v>
+        <v>129901000</v>
       </c>
       <c r="J66" s="3">
-        <v>123434000</v>
+        <v>125656000</v>
       </c>
       <c r="K66" s="3">
         <v>109251000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26138000</v>
+        <v>26608700</v>
       </c>
       <c r="E72" s="3">
-        <v>21906300</v>
+        <v>22300800</v>
       </c>
       <c r="F72" s="3">
-        <v>13597300</v>
+        <v>13842100</v>
       </c>
       <c r="G72" s="3">
-        <v>9292400</v>
+        <v>9459800</v>
       </c>
       <c r="H72" s="3">
-        <v>8839000</v>
+        <v>8998100</v>
       </c>
       <c r="I72" s="3">
-        <v>7681900</v>
+        <v>7820300</v>
       </c>
       <c r="J72" s="3">
-        <v>8876100</v>
+        <v>9035900</v>
       </c>
       <c r="K72" s="3">
         <v>9951500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38942900</v>
+        <v>39644200</v>
       </c>
       <c r="E76" s="3">
-        <v>35365800</v>
+        <v>36002700</v>
       </c>
       <c r="F76" s="3">
-        <v>28011900</v>
+        <v>28516400</v>
       </c>
       <c r="G76" s="3">
-        <v>23574000</v>
+        <v>23998500</v>
       </c>
       <c r="H76" s="3">
-        <v>23253900</v>
+        <v>23672700</v>
       </c>
       <c r="I76" s="3">
-        <v>21873200</v>
+        <v>22267100</v>
       </c>
       <c r="J76" s="3">
-        <v>21316800</v>
+        <v>21700700</v>
       </c>
       <c r="K76" s="3">
         <v>19927700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5495900</v>
+        <v>5594900</v>
       </c>
       <c r="E81" s="3">
-        <v>8649600</v>
+        <v>8805400</v>
       </c>
       <c r="F81" s="3">
-        <v>4633100</v>
+        <v>4716500</v>
       </c>
       <c r="G81" s="3">
-        <v>691800</v>
+        <v>704300</v>
       </c>
       <c r="H81" s="3">
-        <v>1395100</v>
+        <v>1420300</v>
       </c>
       <c r="I81" s="3">
-        <v>-1189300</v>
+        <v>-1210700</v>
       </c>
       <c r="J81" s="3">
-        <v>-1211800</v>
+        <v>-1233600</v>
       </c>
       <c r="K81" s="3">
         <v>377600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3933100</v>
+        <v>4003900</v>
       </c>
       <c r="E83" s="3">
-        <v>3530800</v>
+        <v>3594400</v>
       </c>
       <c r="F83" s="3">
-        <v>3412000</v>
+        <v>3473500</v>
       </c>
       <c r="G83" s="3">
-        <v>3087300</v>
+        <v>3142900</v>
       </c>
       <c r="H83" s="3">
-        <v>3748500</v>
+        <v>3816000</v>
       </c>
       <c r="I83" s="3">
-        <v>3347700</v>
+        <v>3407900</v>
       </c>
       <c r="J83" s="3">
-        <v>3556000</v>
+        <v>3620000</v>
       </c>
       <c r="K83" s="3">
         <v>3424500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12713900</v>
+        <v>12942800</v>
       </c>
       <c r="E89" s="3">
-        <v>11847200</v>
+        <v>12060500</v>
       </c>
       <c r="F89" s="3">
-        <v>11775100</v>
+        <v>11987100</v>
       </c>
       <c r="G89" s="3">
-        <v>7639400</v>
+        <v>7777000</v>
       </c>
       <c r="H89" s="3">
-        <v>7071400</v>
+        <v>7198700</v>
       </c>
       <c r="I89" s="3">
-        <v>7123800</v>
+        <v>7252100</v>
       </c>
       <c r="J89" s="3">
-        <v>6269300</v>
+        <v>6382200</v>
       </c>
       <c r="K89" s="3">
         <v>4328300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4151300</v>
+        <v>-4226100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2951400</v>
+        <v>-3004500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2482600</v>
+        <v>-2527300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3148300</v>
+        <v>-3205000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3543900</v>
+        <v>-3607700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2038200</v>
+        <v>-2075000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2675800</v>
+        <v>-2724000</v>
       </c>
       <c r="K91" s="3">
         <v>-2967800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12765500</v>
+        <v>-12995400</v>
       </c>
       <c r="E94" s="3">
-        <v>-12342300</v>
+        <v>-12564500</v>
       </c>
       <c r="F94" s="3">
-        <v>-7769800</v>
+        <v>-7909700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11837500</v>
+        <v>-12050700</v>
       </c>
       <c r="H94" s="3">
-        <v>-9727000</v>
+        <v>-9902200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6038200</v>
+        <v>-6146900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6707100</v>
+        <v>-6827900</v>
       </c>
       <c r="K94" s="3">
         <v>-6411000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-468000</v>
+        <v>-476400</v>
       </c>
       <c r="E96" s="3">
-        <v>-359400</v>
+        <v>-365800</v>
       </c>
       <c r="F96" s="3">
-        <v>-268900</v>
+        <v>-273800</v>
       </c>
       <c r="G96" s="3">
-        <v>-238800</v>
+        <v>-243100</v>
       </c>
       <c r="H96" s="3">
-        <v>-120400</v>
+        <v>-122500</v>
       </c>
       <c r="I96" s="3">
-        <v>-124200</v>
+        <v>-126500</v>
       </c>
       <c r="J96" s="3">
-        <v>-242100</v>
+        <v>-246400</v>
       </c>
       <c r="K96" s="3">
         <v>-227800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>619800</v>
+        <v>631000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1160000</v>
+        <v>-1180900</v>
       </c>
       <c r="F100" s="3">
-        <v>2326500</v>
+        <v>2368400</v>
       </c>
       <c r="G100" s="3">
-        <v>4269700</v>
+        <v>4346600</v>
       </c>
       <c r="H100" s="3">
-        <v>3588400</v>
+        <v>3653000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2484600</v>
+        <v>-2529300</v>
       </c>
       <c r="J100" s="3">
-        <v>1962400</v>
+        <v>1997700</v>
       </c>
       <c r="K100" s="3">
         <v>804700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-204300</v>
+        <v>-208000</v>
       </c>
       <c r="E101" s="3">
-        <v>495300</v>
+        <v>504200</v>
       </c>
       <c r="F101" s="3">
-        <v>-500700</v>
+        <v>-509800</v>
       </c>
       <c r="G101" s="3">
-        <v>-293200</v>
+        <v>-298500</v>
       </c>
       <c r="H101" s="3">
-        <v>-609900</v>
+        <v>-620900</v>
       </c>
       <c r="I101" s="3">
-        <v>482700</v>
+        <v>491400</v>
       </c>
       <c r="J101" s="3">
-        <v>553300</v>
+        <v>563300</v>
       </c>
       <c r="K101" s="3">
         <v>657900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>363900</v>
+        <v>370400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1159900</v>
+        <v>-1180700</v>
       </c>
       <c r="F102" s="3">
-        <v>5831100</v>
+        <v>5936100</v>
       </c>
       <c r="G102" s="3">
-        <v>-221600</v>
+        <v>-225500</v>
       </c>
       <c r="H102" s="3">
-        <v>322800</v>
+        <v>328700</v>
       </c>
       <c r="I102" s="3">
-        <v>-916200</v>
+        <v>-932700</v>
       </c>
       <c r="J102" s="3">
-        <v>2077800</v>
+        <v>2115200</v>
       </c>
       <c r="K102" s="3">
         <v>-620100</v>

--- a/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SNE_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79377500</v>
+        <v>75660500</v>
       </c>
       <c r="E8" s="3">
-        <v>83277300</v>
+        <v>79377700</v>
       </c>
       <c r="F8" s="3">
-        <v>82107700</v>
+        <v>78262900</v>
       </c>
       <c r="G8" s="3">
-        <v>73067200</v>
+        <v>69645800</v>
       </c>
       <c r="H8" s="3">
-        <v>77895900</v>
+        <v>74248300</v>
       </c>
       <c r="I8" s="3">
-        <v>78954600</v>
+        <v>75257500</v>
       </c>
       <c r="J8" s="3">
-        <v>74643400</v>
+        <v>71148200</v>
       </c>
       <c r="K8" s="3">
         <v>61771100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>52141500</v>
+        <v>49700000</v>
       </c>
       <c r="E9" s="3">
-        <v>55565000</v>
+        <v>52963100</v>
       </c>
       <c r="F9" s="3">
-        <v>55468000</v>
+        <v>52870600</v>
       </c>
       <c r="G9" s="3">
-        <v>50122900</v>
+        <v>47775800</v>
       </c>
       <c r="H9" s="3">
-        <v>53878200</v>
+        <v>51355300</v>
       </c>
       <c r="I9" s="3">
-        <v>54717600</v>
+        <v>52155300</v>
       </c>
       <c r="J9" s="3">
-        <v>52760600</v>
+        <v>50290100</v>
       </c>
       <c r="K9" s="3">
         <v>44232300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27236000</v>
+        <v>25960600</v>
       </c>
       <c r="E10" s="3">
-        <v>27712300</v>
+        <v>26414600</v>
       </c>
       <c r="F10" s="3">
-        <v>26639700</v>
+        <v>25392200</v>
       </c>
       <c r="G10" s="3">
-        <v>22944400</v>
+        <v>21870000</v>
       </c>
       <c r="H10" s="3">
-        <v>24017700</v>
+        <v>22893100</v>
       </c>
       <c r="I10" s="3">
-        <v>24237100</v>
+        <v>23102100</v>
       </c>
       <c r="J10" s="3">
-        <v>21882800</v>
+        <v>20858100</v>
       </c>
       <c r="K10" s="3">
         <v>17538900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4798200</v>
+        <v>4573500</v>
       </c>
       <c r="E12" s="3">
-        <v>4624400</v>
+        <v>4407800</v>
       </c>
       <c r="F12" s="3">
-        <v>4406400</v>
+        <v>4200000</v>
       </c>
       <c r="G12" s="3">
-        <v>4300100</v>
+        <v>4098700</v>
       </c>
       <c r="H12" s="3">
-        <v>4499200</v>
+        <v>4288600</v>
       </c>
       <c r="I12" s="3">
-        <v>4462100</v>
+        <v>4253200</v>
       </c>
       <c r="J12" s="3">
-        <v>4478500</v>
+        <v>4268800</v>
       </c>
       <c r="K12" s="3">
         <v>4305100</v>
@@ -897,16 +897,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>286200</v>
+        <v>272800</v>
       </c>
       <c r="E14" s="3">
-        <v>451000</v>
+        <v>429900</v>
       </c>
       <c r="F14" s="3">
-        <v>370900</v>
+        <v>353600</v>
       </c>
       <c r="G14" s="3">
-        <v>1077000</v>
+        <v>1026600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71252600</v>
+        <v>67916100</v>
       </c>
       <c r="E17" s="3">
-        <v>74683700</v>
+        <v>71186500</v>
       </c>
       <c r="F17" s="3">
-        <v>75045700</v>
+        <v>71531600</v>
       </c>
       <c r="G17" s="3">
-        <v>70292800</v>
+        <v>67001300</v>
       </c>
       <c r="H17" s="3">
-        <v>75068700</v>
+        <v>71553500</v>
       </c>
       <c r="I17" s="3">
-        <v>78295900</v>
+        <v>74629600</v>
       </c>
       <c r="J17" s="3">
-        <v>74388800</v>
+        <v>70905500</v>
       </c>
       <c r="K17" s="3">
         <v>59712200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8124900</v>
+        <v>7744400</v>
       </c>
       <c r="E18" s="3">
-        <v>8593600</v>
+        <v>8191200</v>
       </c>
       <c r="F18" s="3">
-        <v>7062000</v>
+        <v>6731300</v>
       </c>
       <c r="G18" s="3">
-        <v>2774400</v>
+        <v>2644500</v>
       </c>
       <c r="H18" s="3">
-        <v>2827200</v>
+        <v>2694800</v>
       </c>
       <c r="I18" s="3">
-        <v>658700</v>
+        <v>627900</v>
       </c>
       <c r="J18" s="3">
-        <v>254600</v>
+        <v>242700</v>
       </c>
       <c r="K18" s="3">
         <v>2058900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-335600</v>
+        <v>-319900</v>
       </c>
       <c r="E20" s="3">
-        <v>1248100</v>
+        <v>1189700</v>
       </c>
       <c r="F20" s="3">
-        <v>-213800</v>
+        <v>-203800</v>
       </c>
       <c r="G20" s="3">
-        <v>-216600</v>
+        <v>-206500</v>
       </c>
       <c r="H20" s="3">
-        <v>342000</v>
+        <v>326000</v>
       </c>
       <c r="I20" s="3">
-        <v>-50200</v>
+        <v>-47800</v>
       </c>
       <c r="J20" s="3">
-        <v>218200</v>
+        <v>208000</v>
       </c>
       <c r="K20" s="3">
         <v>383900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11784900</v>
+        <v>11257700</v>
       </c>
       <c r="E21" s="3">
-        <v>13428700</v>
+        <v>12821900</v>
       </c>
       <c r="F21" s="3">
-        <v>10314500</v>
+        <v>9852800</v>
       </c>
       <c r="G21" s="3">
-        <v>5694200</v>
+        <v>5446900</v>
       </c>
       <c r="H21" s="3">
-        <v>6977400</v>
+        <v>6674100</v>
       </c>
       <c r="I21" s="3">
-        <v>4009400</v>
+        <v>3842600</v>
       </c>
       <c r="J21" s="3">
-        <v>4085300</v>
+        <v>3916300</v>
       </c>
       <c r="K21" s="3">
         <v>5874900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="E22" s="3">
-        <v>119800</v>
+        <v>114200</v>
       </c>
       <c r="F22" s="3">
-        <v>130400</v>
+        <v>124300</v>
       </c>
       <c r="G22" s="3">
-        <v>139800</v>
+        <v>133200</v>
       </c>
       <c r="H22" s="3">
-        <v>243000</v>
+        <v>231600</v>
       </c>
       <c r="I22" s="3">
-        <v>226800</v>
+        <v>216200</v>
       </c>
       <c r="J22" s="3">
-        <v>225500</v>
+        <v>214900</v>
       </c>
       <c r="K22" s="3">
         <v>242300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7682700</v>
+        <v>7323000</v>
       </c>
       <c r="E23" s="3">
-        <v>9721900</v>
+        <v>9266700</v>
       </c>
       <c r="F23" s="3">
-        <v>6717900</v>
+        <v>6403300</v>
       </c>
       <c r="G23" s="3">
-        <v>2418100</v>
+        <v>2304800</v>
       </c>
       <c r="H23" s="3">
-        <v>2926300</v>
+        <v>2789300</v>
       </c>
       <c r="I23" s="3">
-        <v>381800</v>
+        <v>363900</v>
       </c>
       <c r="J23" s="3">
-        <v>247400</v>
+        <v>235800</v>
       </c>
       <c r="K23" s="3">
         <v>2200500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1702800</v>
+        <v>1623100</v>
       </c>
       <c r="E24" s="3">
-        <v>433400</v>
+        <v>413100</v>
       </c>
       <c r="F24" s="3">
-        <v>1458500</v>
+        <v>1390200</v>
       </c>
       <c r="G24" s="3">
-        <v>1192200</v>
+        <v>1136400</v>
       </c>
       <c r="H24" s="3">
-        <v>910900</v>
+        <v>868300</v>
       </c>
       <c r="I24" s="3">
-        <v>852700</v>
+        <v>812800</v>
       </c>
       <c r="J24" s="3">
-        <v>908900</v>
+        <v>866400</v>
       </c>
       <c r="K24" s="3">
         <v>1276200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5979900</v>
+        <v>5699900</v>
       </c>
       <c r="E26" s="3">
-        <v>9288500</v>
+        <v>8853600</v>
       </c>
       <c r="F26" s="3">
-        <v>5259400</v>
+        <v>5013100</v>
       </c>
       <c r="G26" s="3">
-        <v>1225900</v>
+        <v>1168500</v>
       </c>
       <c r="H26" s="3">
-        <v>2015400</v>
+        <v>1921000</v>
       </c>
       <c r="I26" s="3">
-        <v>-470900</v>
+        <v>-448900</v>
       </c>
       <c r="J26" s="3">
-        <v>-661600</v>
+        <v>-630600</v>
       </c>
       <c r="K26" s="3">
         <v>924300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5594900</v>
+        <v>5332900</v>
       </c>
       <c r="E27" s="3">
-        <v>8805400</v>
+        <v>8393000</v>
       </c>
       <c r="F27" s="3">
-        <v>4716500</v>
+        <v>4495700</v>
       </c>
       <c r="G27" s="3">
-        <v>704300</v>
+        <v>671300</v>
       </c>
       <c r="H27" s="3">
-        <v>1420300</v>
+        <v>1353800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1210700</v>
+        <v>-1154000</v>
       </c>
       <c r="J27" s="3">
-        <v>-1233600</v>
+        <v>-1175900</v>
       </c>
       <c r="K27" s="3">
         <v>377600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>335600</v>
+        <v>319900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1248100</v>
+        <v>-1189700</v>
       </c>
       <c r="F32" s="3">
-        <v>213800</v>
+        <v>203800</v>
       </c>
       <c r="G32" s="3">
-        <v>216600</v>
+        <v>206500</v>
       </c>
       <c r="H32" s="3">
-        <v>-342000</v>
+        <v>-326000</v>
       </c>
       <c r="I32" s="3">
-        <v>50200</v>
+        <v>47800</v>
       </c>
       <c r="J32" s="3">
-        <v>-218200</v>
+        <v>-208000</v>
       </c>
       <c r="K32" s="3">
         <v>-383900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5594900</v>
+        <v>5332900</v>
       </c>
       <c r="E33" s="3">
-        <v>8805400</v>
+        <v>8393000</v>
       </c>
       <c r="F33" s="3">
-        <v>4716500</v>
+        <v>4495700</v>
       </c>
       <c r="G33" s="3">
-        <v>704300</v>
+        <v>671300</v>
       </c>
       <c r="H33" s="3">
-        <v>1420300</v>
+        <v>1353800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1210700</v>
+        <v>-1154000</v>
       </c>
       <c r="J33" s="3">
-        <v>-1233600</v>
+        <v>-1175900</v>
       </c>
       <c r="K33" s="3">
         <v>377600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5594900</v>
+        <v>5332900</v>
       </c>
       <c r="E35" s="3">
-        <v>8805400</v>
+        <v>8393000</v>
       </c>
       <c r="F35" s="3">
-        <v>4716500</v>
+        <v>4495700</v>
       </c>
       <c r="G35" s="3">
-        <v>704300</v>
+        <v>671300</v>
       </c>
       <c r="H35" s="3">
-        <v>1420300</v>
+        <v>1353800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1210700</v>
+        <v>-1154000</v>
       </c>
       <c r="J35" s="3">
-        <v>-1233600</v>
+        <v>-1175900</v>
       </c>
       <c r="K35" s="3">
         <v>377600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14533800</v>
+        <v>13853200</v>
       </c>
       <c r="E41" s="3">
-        <v>14127400</v>
+        <v>13465900</v>
       </c>
       <c r="F41" s="3">
-        <v>15244600</v>
+        <v>14530800</v>
       </c>
       <c r="G41" s="3">
-        <v>9227000</v>
+        <v>8794900</v>
       </c>
       <c r="H41" s="3">
-        <v>9452500</v>
+        <v>9009900</v>
       </c>
       <c r="I41" s="3">
-        <v>9123900</v>
+        <v>8696600</v>
       </c>
       <c r="J41" s="3">
-        <v>10056500</v>
+        <v>9585600</v>
       </c>
       <c r="K41" s="3">
         <v>7511600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17757100</v>
+        <v>16925600</v>
       </c>
       <c r="E42" s="3">
-        <v>12728800</v>
+        <v>12132800</v>
       </c>
       <c r="F42" s="3">
-        <v>11307100</v>
+        <v>10777700</v>
       </c>
       <c r="G42" s="3">
-        <v>10104300</v>
+        <v>9631200</v>
       </c>
       <c r="H42" s="3">
-        <v>9094900</v>
+        <v>8669000</v>
       </c>
       <c r="I42" s="3">
-        <v>9002000</v>
+        <v>8580500</v>
       </c>
       <c r="J42" s="3">
-        <v>8001000</v>
+        <v>7626300</v>
       </c>
       <c r="K42" s="3">
         <v>6341200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11445800</v>
+        <v>10909800</v>
       </c>
       <c r="E43" s="3">
-        <v>12391300</v>
+        <v>11811100</v>
       </c>
       <c r="F43" s="3">
-        <v>11565500</v>
+        <v>11023900</v>
       </c>
       <c r="G43" s="3">
-        <v>11315200</v>
+        <v>10785400</v>
       </c>
       <c r="H43" s="3">
-        <v>10183200</v>
+        <v>9706400</v>
       </c>
       <c r="I43" s="3">
-        <v>10877100</v>
+        <v>10367700</v>
       </c>
       <c r="J43" s="3">
-        <v>10529400</v>
+        <v>10036300</v>
       </c>
       <c r="K43" s="3">
         <v>8404900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5669600</v>
+        <v>5404100</v>
       </c>
       <c r="E44" s="3">
-        <v>6278000</v>
+        <v>5984000</v>
       </c>
       <c r="F44" s="3">
-        <v>6659100</v>
+        <v>6347300</v>
       </c>
       <c r="G44" s="3">
-        <v>6158400</v>
+        <v>5870000</v>
       </c>
       <c r="H44" s="3">
-        <v>6565000</v>
+        <v>6257600</v>
       </c>
       <c r="I44" s="3">
-        <v>6394800</v>
+        <v>6095400</v>
       </c>
       <c r="J44" s="3">
-        <v>7053200</v>
+        <v>6722900</v>
       </c>
       <c r="K44" s="3">
         <v>6454400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5708500</v>
+        <v>5441200</v>
       </c>
       <c r="E45" s="3">
-        <v>4894400</v>
+        <v>4665200</v>
       </c>
       <c r="F45" s="3">
-        <v>4965900</v>
+        <v>4733400</v>
       </c>
       <c r="G45" s="3">
-        <v>5053500</v>
+        <v>4816900</v>
       </c>
       <c r="H45" s="3">
-        <v>5034900</v>
+        <v>4799100</v>
       </c>
       <c r="I45" s="3">
-        <v>4944100</v>
+        <v>4712600</v>
       </c>
       <c r="J45" s="3">
-        <v>4768900</v>
+        <v>4545600</v>
       </c>
       <c r="K45" s="3">
         <v>4434900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55114700</v>
+        <v>52533900</v>
       </c>
       <c r="E46" s="3">
-        <v>50419900</v>
+        <v>48059000</v>
       </c>
       <c r="F46" s="3">
-        <v>49742300</v>
+        <v>47413000</v>
       </c>
       <c r="G46" s="3">
-        <v>41858500</v>
+        <v>39898400</v>
       </c>
       <c r="H46" s="3">
-        <v>40330500</v>
+        <v>38442000</v>
       </c>
       <c r="I46" s="3">
-        <v>40341800</v>
+        <v>38452800</v>
       </c>
       <c r="J46" s="3">
-        <v>40409000</v>
+        <v>38516800</v>
       </c>
       <c r="K46" s="3">
         <v>33147000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>122375000</v>
+        <v>116645000</v>
       </c>
       <c r="E47" s="3">
-        <v>112674000</v>
+        <v>107398000</v>
       </c>
       <c r="F47" s="3">
-        <v>103366000</v>
+        <v>98525500</v>
       </c>
       <c r="G47" s="3">
-        <v>97174300</v>
+        <v>92624000</v>
       </c>
       <c r="H47" s="3">
-        <v>88739500</v>
+        <v>84584200</v>
       </c>
       <c r="I47" s="3">
-        <v>81986300</v>
+        <v>78147200</v>
       </c>
       <c r="J47" s="3">
-        <v>76101700</v>
+        <v>72538100</v>
       </c>
       <c r="K47" s="3">
         <v>66512700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12505100</v>
+        <v>11919500</v>
       </c>
       <c r="E48" s="3">
-        <v>7467500</v>
+        <v>7117800</v>
       </c>
       <c r="F48" s="3">
-        <v>7106300</v>
+        <v>6773500</v>
       </c>
       <c r="G48" s="3">
-        <v>7286300</v>
+        <v>6945100</v>
       </c>
       <c r="H48" s="3">
-        <v>7888100</v>
+        <v>7518700</v>
       </c>
       <c r="I48" s="3">
-        <v>7104500</v>
+        <v>6771900</v>
       </c>
       <c r="J48" s="3">
-        <v>7207600</v>
+        <v>6870100</v>
       </c>
       <c r="K48" s="3">
         <v>7831500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16242800</v>
+        <v>15482200</v>
       </c>
       <c r="E49" s="3">
-        <v>16207400</v>
+        <v>15448500</v>
       </c>
       <c r="F49" s="3">
-        <v>10164100</v>
+        <v>9688200</v>
       </c>
       <c r="G49" s="3">
-        <v>10635600</v>
+        <v>10137600</v>
       </c>
       <c r="H49" s="3">
-        <v>11743800</v>
+        <v>11193900</v>
       </c>
       <c r="I49" s="3">
-        <v>11566700</v>
+        <v>11025100</v>
       </c>
       <c r="J49" s="3">
-        <v>13141300</v>
+        <v>12526000</v>
       </c>
       <c r="K49" s="3">
         <v>11891900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15170500</v>
+        <v>14460100</v>
       </c>
       <c r="E52" s="3">
-        <v>14864300</v>
+        <v>14168200</v>
       </c>
       <c r="F52" s="3">
-        <v>12841400</v>
+        <v>12240100</v>
       </c>
       <c r="G52" s="3">
-        <v>12763200</v>
+        <v>12165600</v>
       </c>
       <c r="H52" s="3">
-        <v>11529300</v>
+        <v>10989400</v>
       </c>
       <c r="I52" s="3">
-        <v>11168500</v>
+        <v>10645500</v>
       </c>
       <c r="J52" s="3">
-        <v>10497500</v>
+        <v>10005900</v>
       </c>
       <c r="K52" s="3">
         <v>9526000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>221408000</v>
+        <v>211040000</v>
       </c>
       <c r="E54" s="3">
-        <v>201633000</v>
+        <v>192191000</v>
       </c>
       <c r="F54" s="3">
-        <v>183220000</v>
+        <v>174640000</v>
       </c>
       <c r="G54" s="3">
-        <v>169718000</v>
+        <v>161771000</v>
       </c>
       <c r="H54" s="3">
-        <v>160231000</v>
+        <v>152728000</v>
       </c>
       <c r="I54" s="3">
-        <v>152168000</v>
+        <v>145043000</v>
       </c>
       <c r="J54" s="3">
-        <v>147357000</v>
+        <v>140457000</v>
       </c>
       <c r="K54" s="3">
         <v>129178000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3659600</v>
+        <v>3488200</v>
       </c>
       <c r="E57" s="3">
-        <v>4729300</v>
+        <v>4507900</v>
       </c>
       <c r="F57" s="3">
-        <v>4502800</v>
+        <v>4291900</v>
       </c>
       <c r="G57" s="3">
-        <v>5188400</v>
+        <v>4945500</v>
       </c>
       <c r="H57" s="3">
-        <v>5294800</v>
+        <v>5046800</v>
       </c>
       <c r="I57" s="3">
-        <v>5979500</v>
+        <v>5699500</v>
       </c>
       <c r="J57" s="3">
-        <v>6850300</v>
+        <v>6529500</v>
       </c>
       <c r="K57" s="3">
         <v>5200400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8072200</v>
+        <v>7694200</v>
       </c>
       <c r="E58" s="3">
-        <v>7602300</v>
+        <v>7246300</v>
       </c>
       <c r="F58" s="3">
-        <v>6934700</v>
+        <v>6610000</v>
       </c>
       <c r="G58" s="3">
-        <v>4978700</v>
+        <v>4745600</v>
       </c>
       <c r="H58" s="3">
-        <v>3238000</v>
+        <v>3086400</v>
       </c>
       <c r="I58" s="3">
-        <v>2128900</v>
+        <v>2029200</v>
       </c>
       <c r="J58" s="3">
-        <v>6185700</v>
+        <v>5896000</v>
       </c>
       <c r="K58" s="3">
         <v>3640300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48238800</v>
+        <v>45980000</v>
       </c>
       <c r="E59" s="3">
-        <v>46095400</v>
+        <v>43937000</v>
       </c>
       <c r="F59" s="3">
-        <v>42575900</v>
+        <v>40582200</v>
       </c>
       <c r="G59" s="3">
-        <v>40013700</v>
+        <v>38140000</v>
       </c>
       <c r="H59" s="3">
-        <v>37890800</v>
+        <v>36116500</v>
       </c>
       <c r="I59" s="3">
-        <v>37496800</v>
+        <v>35740900</v>
       </c>
       <c r="J59" s="3">
-        <v>35490000</v>
+        <v>33828200</v>
       </c>
       <c r="K59" s="3">
         <v>31804100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59970700</v>
+        <v>57162500</v>
       </c>
       <c r="E60" s="3">
-        <v>58427000</v>
+        <v>55691100</v>
       </c>
       <c r="F60" s="3">
-        <v>54013400</v>
+        <v>51484200</v>
       </c>
       <c r="G60" s="3">
-        <v>50180900</v>
+        <v>47831100</v>
       </c>
       <c r="H60" s="3">
-        <v>46423500</v>
+        <v>44249700</v>
       </c>
       <c r="I60" s="3">
-        <v>45605100</v>
+        <v>43469600</v>
       </c>
       <c r="J60" s="3">
-        <v>45970500</v>
+        <v>43817900</v>
       </c>
       <c r="K60" s="3">
         <v>39224200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6102000</v>
+        <v>5816300</v>
       </c>
       <c r="E61" s="3">
-        <v>5462100</v>
+        <v>5206300</v>
       </c>
       <c r="F61" s="3">
-        <v>5991400</v>
+        <v>5710800</v>
       </c>
       <c r="G61" s="3">
-        <v>6548800</v>
+        <v>6242200</v>
       </c>
       <c r="H61" s="3">
-        <v>5349000</v>
+        <v>5098500</v>
       </c>
       <c r="I61" s="3">
-        <v>6843200</v>
+        <v>6522700</v>
       </c>
       <c r="J61" s="3">
-        <v>8809000</v>
+        <v>8396500</v>
       </c>
       <c r="K61" s="3">
         <v>8530300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>109233000</v>
+        <v>104118000</v>
       </c>
       <c r="E62" s="3">
-        <v>95022800</v>
+        <v>90573200</v>
       </c>
       <c r="F62" s="3">
-        <v>88077400</v>
+        <v>83953000</v>
       </c>
       <c r="G62" s="3">
-        <v>82740900</v>
+        <v>78866500</v>
       </c>
       <c r="H62" s="3">
-        <v>78361400</v>
+        <v>74692000</v>
       </c>
       <c r="I62" s="3">
-        <v>71526600</v>
+        <v>68177300</v>
       </c>
       <c r="J62" s="3">
-        <v>65792000</v>
+        <v>62711200</v>
       </c>
       <c r="K62" s="3">
         <v>57108100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>181764000</v>
+        <v>173253000</v>
       </c>
       <c r="E66" s="3">
-        <v>165630000</v>
+        <v>157875000</v>
       </c>
       <c r="F66" s="3">
-        <v>154703000</v>
+        <v>147459000</v>
       </c>
       <c r="G66" s="3">
-        <v>145719000</v>
+        <v>138896000</v>
       </c>
       <c r="H66" s="3">
-        <v>136559000</v>
+        <v>130164000</v>
       </c>
       <c r="I66" s="3">
-        <v>129901000</v>
+        <v>123818000</v>
       </c>
       <c r="J66" s="3">
-        <v>125656000</v>
+        <v>119772000</v>
       </c>
       <c r="K66" s="3">
         <v>109251000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26608700</v>
+        <v>25362700</v>
       </c>
       <c r="E72" s="3">
-        <v>22300800</v>
+        <v>21256600</v>
       </c>
       <c r="F72" s="3">
-        <v>13842100</v>
+        <v>13193900</v>
       </c>
       <c r="G72" s="3">
-        <v>9459800</v>
+        <v>9016800</v>
       </c>
       <c r="H72" s="3">
-        <v>8998100</v>
+        <v>8576800</v>
       </c>
       <c r="I72" s="3">
-        <v>7820300</v>
+        <v>7454100</v>
       </c>
       <c r="J72" s="3">
-        <v>9035900</v>
+        <v>8612800</v>
       </c>
       <c r="K72" s="3">
         <v>9951500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39644200</v>
+        <v>37787800</v>
       </c>
       <c r="E76" s="3">
-        <v>36002700</v>
+        <v>34316800</v>
       </c>
       <c r="F76" s="3">
-        <v>28516400</v>
+        <v>27181100</v>
       </c>
       <c r="G76" s="3">
-        <v>23998500</v>
+        <v>22874800</v>
       </c>
       <c r="H76" s="3">
-        <v>23672700</v>
+        <v>22564200</v>
       </c>
       <c r="I76" s="3">
-        <v>22267100</v>
+        <v>21224400</v>
       </c>
       <c r="J76" s="3">
-        <v>21700700</v>
+        <v>20684500</v>
       </c>
       <c r="K76" s="3">
         <v>19927700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5594900</v>
+        <v>5332900</v>
       </c>
       <c r="E81" s="3">
-        <v>8805400</v>
+        <v>8393000</v>
       </c>
       <c r="F81" s="3">
-        <v>4716500</v>
+        <v>4495700</v>
       </c>
       <c r="G81" s="3">
-        <v>704300</v>
+        <v>671300</v>
       </c>
       <c r="H81" s="3">
-        <v>1420300</v>
+        <v>1353800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1210700</v>
+        <v>-1154000</v>
       </c>
       <c r="J81" s="3">
-        <v>-1233600</v>
+        <v>-1175900</v>
       </c>
       <c r="K81" s="3">
         <v>377600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4003900</v>
+        <v>3816400</v>
       </c>
       <c r="E83" s="3">
-        <v>3594400</v>
+        <v>3426100</v>
       </c>
       <c r="F83" s="3">
-        <v>3473500</v>
+        <v>3310800</v>
       </c>
       <c r="G83" s="3">
-        <v>3142900</v>
+        <v>2995800</v>
       </c>
       <c r="H83" s="3">
-        <v>3816000</v>
+        <v>3637400</v>
       </c>
       <c r="I83" s="3">
-        <v>3407900</v>
+        <v>3248400</v>
       </c>
       <c r="J83" s="3">
-        <v>3620000</v>
+        <v>3450500</v>
       </c>
       <c r="K83" s="3">
         <v>3424500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12942800</v>
+        <v>12336800</v>
       </c>
       <c r="E89" s="3">
-        <v>12060500</v>
+        <v>11495800</v>
       </c>
       <c r="F89" s="3">
-        <v>11987100</v>
+        <v>11425800</v>
       </c>
       <c r="G89" s="3">
-        <v>7777000</v>
+        <v>7412800</v>
       </c>
       <c r="H89" s="3">
-        <v>7198700</v>
+        <v>6861700</v>
       </c>
       <c r="I89" s="3">
-        <v>7252100</v>
+        <v>6912500</v>
       </c>
       <c r="J89" s="3">
-        <v>6382200</v>
+        <v>6083300</v>
       </c>
       <c r="K89" s="3">
         <v>4328300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4226100</v>
+        <v>-4028200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3004500</v>
+        <v>-2863800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2527300</v>
+        <v>-2409000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3205000</v>
+        <v>-3054900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3607700</v>
+        <v>-3438800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2075000</v>
+        <v>-1977800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2724000</v>
+        <v>-2596500</v>
       </c>
       <c r="K91" s="3">
         <v>-2967800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12995400</v>
+        <v>-12386900</v>
       </c>
       <c r="E94" s="3">
-        <v>-12564500</v>
+        <v>-11976200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7909700</v>
+        <v>-7539300</v>
       </c>
       <c r="G94" s="3">
-        <v>-12050700</v>
+        <v>-11486400</v>
       </c>
       <c r="H94" s="3">
-        <v>-9902200</v>
+        <v>-9438500</v>
       </c>
       <c r="I94" s="3">
-        <v>-6146900</v>
+        <v>-5859100</v>
       </c>
       <c r="J94" s="3">
-        <v>-6827900</v>
+        <v>-6508200</v>
       </c>
       <c r="K94" s="3">
         <v>-6411000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-476400</v>
+        <v>-454100</v>
       </c>
       <c r="E96" s="3">
-        <v>-365800</v>
+        <v>-348700</v>
       </c>
       <c r="F96" s="3">
-        <v>-273800</v>
+        <v>-261000</v>
       </c>
       <c r="G96" s="3">
-        <v>-243100</v>
+        <v>-231800</v>
       </c>
       <c r="H96" s="3">
-        <v>-122500</v>
+        <v>-116800</v>
       </c>
       <c r="I96" s="3">
-        <v>-126500</v>
+        <v>-120500</v>
       </c>
       <c r="J96" s="3">
-        <v>-246400</v>
+        <v>-234900</v>
       </c>
       <c r="K96" s="3">
         <v>-227800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>631000</v>
+        <v>601400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1180900</v>
+        <v>-1125600</v>
       </c>
       <c r="F100" s="3">
-        <v>2368400</v>
+        <v>2257500</v>
       </c>
       <c r="G100" s="3">
-        <v>4346600</v>
+        <v>4143100</v>
       </c>
       <c r="H100" s="3">
-        <v>3653000</v>
+        <v>3481900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2529300</v>
+        <v>-2410900</v>
       </c>
       <c r="J100" s="3">
-        <v>1997700</v>
+        <v>1904200</v>
       </c>
       <c r="K100" s="3">
         <v>804700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-208000</v>
+        <v>-198200</v>
       </c>
       <c r="E101" s="3">
-        <v>504200</v>
+        <v>480600</v>
       </c>
       <c r="F101" s="3">
-        <v>-509800</v>
+        <v>-485900</v>
       </c>
       <c r="G101" s="3">
-        <v>-298500</v>
+        <v>-284500</v>
       </c>
       <c r="H101" s="3">
-        <v>-620900</v>
+        <v>-591800</v>
       </c>
       <c r="I101" s="3">
-        <v>491400</v>
+        <v>468400</v>
       </c>
       <c r="J101" s="3">
-        <v>563300</v>
+        <v>536900</v>
       </c>
       <c r="K101" s="3">
         <v>657900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>370400</v>
+        <v>353100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1180700</v>
+        <v>-1125500</v>
       </c>
       <c r="F102" s="3">
-        <v>5936100</v>
+        <v>5658200</v>
       </c>
       <c r="G102" s="3">
-        <v>-225500</v>
+        <v>-215000</v>
       </c>
       <c r="H102" s="3">
-        <v>328700</v>
+        <v>313300</v>
       </c>
       <c r="I102" s="3">
-        <v>-932700</v>
+        <v>-889000</v>
       </c>
       <c r="J102" s="3">
-        <v>2115200</v>
+        <v>2016200</v>
       </c>
       <c r="K102" s="3">
         <v>-620100</v>
